--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq - Copy\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6BD104-1D7E-4716-92C7-94480F77AC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3714512-827F-4250-8959-612905BCC5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="118">
   <si>
     <t>interface</t>
   </si>
@@ -370,6 +370,15 @@
   </si>
   <si>
     <t>smq915</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coletor não funciona,não liga,não pega,parou de funcionar </t>
+  </si>
+  <si>
+    <t>coletor travando,parado,travado,não funciona,não pega</t>
   </si>
 </sst>
 </file>
@@ -797,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,15 +818,15 @@
     <col min="2" max="2" width="29.140625" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" customWidth="1"/>
     <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="34.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="10" width="38.85546875" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="34.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="11" width="38.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -834,10 +843,13 @@
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -854,10 +866,13 @@
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -874,10 +889,13 @@
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -893,11 +911,12 @@
       <c r="E4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -913,11 +932,12 @@
       <c r="E5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
@@ -933,11 +953,12 @@
       <c r="E6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -953,11 +974,12 @@
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
@@ -973,11 +995,12 @@
       <c r="E8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="36" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -993,12 +1016,13 @@
       <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" ht="36" x14ac:dyDescent="0.35">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="36" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1014,12 +1038,13 @@
       <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1035,12 +1060,13 @@
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1056,12 +1082,13 @@
       <c r="E12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1077,12 +1104,13 @@
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1098,11 +1126,12 @@
       <c r="E14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>8</v>
       </c>
@@ -1118,11 +1147,12 @@
       <c r="E15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="36" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
@@ -1138,11 +1168,12 @@
       <c r="E16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1158,11 +1189,12 @@
       <c r="E17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1178,11 +1210,12 @@
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -1198,11 +1231,12 @@
       <c r="E19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1218,11 +1252,12 @@
       <c r="E20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1238,11 +1273,12 @@
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1258,11 +1294,12 @@
       <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1278,11 +1315,12 @@
       <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>8</v>
       </c>
@@ -1298,11 +1336,12 @@
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>8</v>
       </c>
@@ -1318,11 +1357,12 @@
       <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1338,11 +1378,12 @@
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1358,11 +1399,12 @@
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>8</v>
       </c>
@@ -1378,11 +1420,12 @@
       <c r="E28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1398,11 +1441,12 @@
       <c r="E29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>8</v>
       </c>
@@ -1418,11 +1462,12 @@
       <c r="E30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>37</v>
       </c>
@@ -1438,11 +1483,12 @@
       <c r="E31" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -1458,11 +1504,12 @@
       <c r="E32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
@@ -1478,11 +1525,12 @@
       <c r="E33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>37</v>
       </c>
@@ -1498,11 +1546,12 @@
       <c r="E34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>37</v>
       </c>
@@ -1518,11 +1567,12 @@
       <c r="E35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
@@ -1538,11 +1588,12 @@
       <c r="E36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>37</v>
       </c>
@@ -1558,11 +1609,12 @@
       <c r="E37" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>37</v>
       </c>
@@ -1578,11 +1630,12 @@
       <c r="E38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1598,11 +1651,12 @@
       <c r="E39" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>37</v>
       </c>
@@ -1618,11 +1672,12 @@
       <c r="E40" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>37</v>
       </c>
@@ -1638,11 +1693,12 @@
       <c r="E41" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>37</v>
       </c>
@@ -1658,11 +1714,12 @@
       <c r="E42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>37</v>
       </c>
@@ -1678,11 +1735,12 @@
       <c r="E43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>37</v>
       </c>
@@ -1698,11 +1756,12 @@
       <c r="E44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>37</v>
       </c>
@@ -1718,11 +1777,12 @@
       <c r="E45" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>37</v>
       </c>
@@ -1738,11 +1798,12 @@
       <c r="E46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -1758,11 +1819,12 @@
       <c r="E47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -1778,11 +1840,12 @@
       <c r="E48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -1798,11 +1861,12 @@
       <c r="E49" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -1818,11 +1882,12 @@
       <c r="E50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -1838,11 +1903,12 @@
       <c r="E51" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -1858,11 +1924,12 @@
       <c r="E52" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -1878,11 +1945,12 @@
       <c r="E53" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -1898,11 +1966,12 @@
       <c r="E54" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -1918,11 +1987,12 @@
       <c r="E55" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -1938,11 +2008,12 @@
       <c r="E56" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -1958,11 +2029,12 @@
       <c r="E57" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F57" s="3"/>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -1978,11 +2050,12 @@
       <c r="E58" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F58" s="3"/>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -1998,11 +2071,12 @@
       <c r="E59" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F59" s="3"/>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2018,11 +2092,12 @@
       <c r="E60" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+      <c r="G60" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -2038,11 +2113,12 @@
       <c r="E61" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F61" s="3"/>
+      <c r="G61" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -2058,11 +2134,12 @@
       <c r="E62" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -2078,11 +2155,12 @@
       <c r="E63" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F63" s="3"/>
+      <c r="G63" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -2098,11 +2176,12 @@
       <c r="E64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+      <c r="G64" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -2118,11 +2197,12 @@
       <c r="E65" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -2138,11 +2218,12 @@
       <c r="E66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F66" s="3"/>
+      <c r="G66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -2158,11 +2239,12 @@
       <c r="E67" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F67" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F67" s="3"/>
+      <c r="G67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -2178,11 +2260,12 @@
       <c r="E68" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F68" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F68" s="3"/>
+      <c r="G68" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -2198,11 +2281,12 @@
       <c r="E69" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F69" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F69" s="3"/>
+      <c r="G69" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -2218,11 +2302,12 @@
       <c r="E70" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F70" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F70" s="3"/>
+      <c r="G70" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -2238,11 +2323,12 @@
       <c r="E71" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F71" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F71" s="3"/>
+      <c r="G71" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -2258,11 +2344,12 @@
       <c r="E72" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F72" s="3"/>
+      <c r="G72" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -2278,11 +2365,12 @@
       <c r="E73" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F73" s="3"/>
+      <c r="G73" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -2298,11 +2386,12 @@
       <c r="E74" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F74" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F74" s="3"/>
+      <c r="G74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -2318,11 +2407,12 @@
       <c r="E75" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F75" s="3"/>
+      <c r="G75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -2338,11 +2428,12 @@
       <c r="E76" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -2358,11 +2449,12 @@
       <c r="E77" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F77" s="3"/>
+      <c r="G77" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -2378,11 +2470,12 @@
       <c r="E78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F78" s="3"/>
+      <c r="G78" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -2398,11 +2491,12 @@
       <c r="E79" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F79" s="3"/>
+      <c r="G79" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -2418,11 +2512,12 @@
       <c r="E80" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F80" s="3"/>
+      <c r="G80" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -2438,11 +2533,12 @@
       <c r="E81" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F81" s="3"/>
+      <c r="G81" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -2458,11 +2554,12 @@
       <c r="E82" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F82" s="3"/>
+      <c r="G82" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -2478,11 +2575,12 @@
       <c r="E83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -2498,11 +2596,12 @@
       <c r="E84" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F84" s="3"/>
+      <c r="G84" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -2518,11 +2617,12 @@
       <c r="E85" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F85" s="3"/>
+      <c r="G85" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -2538,11 +2638,12 @@
       <c r="E86" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F86" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F86" s="3"/>
+      <c r="G86" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -2558,11 +2659,12 @@
       <c r="E87" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F87" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F87" s="3"/>
+      <c r="G87" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>96</v>
       </c>
@@ -2578,11 +2680,12 @@
       <c r="E88" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F88" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F88" s="3"/>
+      <c r="G88" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>96</v>
       </c>
@@ -2598,11 +2701,12 @@
       <c r="E89" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F89" s="3"/>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
@@ -2618,11 +2722,12 @@
       <c r="E90" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F90" s="3"/>
+      <c r="G90" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>96</v>
       </c>
@@ -2638,11 +2743,12 @@
       <c r="E91" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>96</v>
       </c>
@@ -2658,11 +2764,12 @@
       <c r="E92" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F92" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F92" s="3"/>
+      <c r="G92" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>96</v>
       </c>
@@ -2678,11 +2785,12 @@
       <c r="E93" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F93" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F93" s="3"/>
+      <c r="G93" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>96</v>
       </c>
@@ -2698,11 +2806,12 @@
       <c r="E94" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F94" s="3"/>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
@@ -2718,11 +2827,12 @@
       <c r="E95" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F95" s="3"/>
+      <c r="G95" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>96</v>
       </c>
@@ -2738,11 +2848,12 @@
       <c r="E96" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F96" s="3"/>
+      <c r="G96" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>96</v>
       </c>
@@ -2758,11 +2869,12 @@
       <c r="E97" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F97" s="3"/>
+      <c r="G97" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>96</v>
       </c>
@@ -2778,11 +2890,12 @@
       <c r="E98" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F98" s="3"/>
+      <c r="G98" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>96</v>
       </c>
@@ -2798,11 +2911,12 @@
       <c r="E99" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F99" s="3"/>
+      <c r="G99" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>96</v>
       </c>
@@ -2818,11 +2932,12 @@
       <c r="E100" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F100" s="3"/>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>96</v>
       </c>
@@ -2838,11 +2953,12 @@
       <c r="E101" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F101" s="3"/>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>96</v>
       </c>
@@ -2858,11 +2974,12 @@
       <c r="E102" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F102" s="3"/>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>96</v>
       </c>
@@ -2878,11 +2995,12 @@
       <c r="E103" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F103" s="3"/>
+      <c r="G103" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>96</v>
       </c>
@@ -2898,11 +3016,12 @@
       <c r="E104" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F104" s="3"/>
+      <c r="G104" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>96</v>
       </c>
@@ -2918,11 +3037,12 @@
       <c r="E105" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F105" s="3"/>
+      <c r="G105" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>96</v>
       </c>
@@ -2938,11 +3058,12 @@
       <c r="E106" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F106" s="3"/>
+      <c r="G106" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>96</v>
       </c>
@@ -2958,11 +3079,12 @@
       <c r="E107" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F107" s="3"/>
+      <c r="G107" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>96</v>
       </c>
@@ -2978,11 +3100,12 @@
       <c r="E108" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F108" s="3"/>
+      <c r="G108" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>96</v>
       </c>
@@ -2998,11 +3121,12 @@
       <c r="E109" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F109" s="3"/>
+      <c r="G109" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>96</v>
       </c>
@@ -3018,11 +3142,12 @@
       <c r="E110" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F110" s="3"/>
+      <c r="G110" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>96</v>
       </c>
@@ -3038,11 +3163,12 @@
       <c r="E111" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F111" s="3"/>
+      <c r="G111" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>96</v>
       </c>
@@ -3058,11 +3184,12 @@
       <c r="E112" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F112" s="3"/>
+      <c r="G112" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>96</v>
       </c>
@@ -3078,11 +3205,12 @@
       <c r="E113" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F113" s="3"/>
+      <c r="G113" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>96</v>
       </c>
@@ -3098,11 +3226,12 @@
       <c r="E114" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F114" s="3"/>
+      <c r="G114" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>96</v>
       </c>
@@ -3118,11 +3247,12 @@
       <c r="E115" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F115" s="3"/>
+      <c r="G115" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>96</v>
       </c>
@@ -3138,11 +3268,12 @@
       <c r="E116" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F116" s="3"/>
+      <c r="G116" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>96</v>
       </c>
@@ -3158,11 +3289,12 @@
       <c r="E117" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F117" s="3"/>
+      <c r="G117" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>96</v>
       </c>
@@ -3178,11 +3310,12 @@
       <c r="E118" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+      <c r="G118" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>96</v>
       </c>
@@ -3198,11 +3331,12 @@
       <c r="E119" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F119" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>96</v>
       </c>
@@ -3218,11 +3352,12 @@
       <c r="E120" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F120" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+      <c r="G120" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>96</v>
       </c>
@@ -3238,11 +3373,12 @@
       <c r="E121" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F121" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+      <c r="G121" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>96</v>
       </c>
@@ -3258,11 +3394,12 @@
       <c r="E122" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F122" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+      <c r="G122" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>96</v>
       </c>
@@ -3278,11 +3415,12 @@
       <c r="E123" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F123" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+      <c r="G123" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>96</v>
       </c>
@@ -3298,11 +3436,12 @@
       <c r="E124" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F124" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+      <c r="G124" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>96</v>
       </c>
@@ -3318,11 +3457,12 @@
       <c r="E125" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+      <c r="G125" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>96</v>
       </c>
@@ -3338,11 +3478,12 @@
       <c r="E126" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+      <c r="G126" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>96</v>
       </c>
@@ -3358,11 +3499,12 @@
       <c r="E127" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F127" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+      <c r="G127" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>96</v>
       </c>
@@ -3378,11 +3520,12 @@
       <c r="E128" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F128" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+      <c r="G128" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>9</v>
       </c>
@@ -3398,11 +3541,12 @@
       <c r="E129" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F129" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+      <c r="G129" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>9</v>
       </c>
@@ -3418,11 +3562,12 @@
       <c r="E130" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F130" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+      <c r="G130" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>9</v>
       </c>
@@ -3438,11 +3583,12 @@
       <c r="E131" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+      <c r="G131" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>9</v>
       </c>
@@ -3458,11 +3604,12 @@
       <c r="E132" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F132" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+      <c r="G132" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>9</v>
       </c>
@@ -3478,11 +3625,12 @@
       <c r="E133" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F133" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+      <c r="G133" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>9</v>
       </c>
@@ -3498,11 +3646,12 @@
       <c r="E134" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F134" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+      <c r="G134" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>9</v>
       </c>
@@ -3518,11 +3667,12 @@
       <c r="E135" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F135" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+      <c r="G135" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>9</v>
       </c>
@@ -3538,11 +3688,12 @@
       <c r="E136" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F136" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+      <c r="G136" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>9</v>
       </c>
@@ -3558,11 +3709,12 @@
       <c r="E137" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F137" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+      <c r="G137" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>9</v>
       </c>
@@ -3578,11 +3730,12 @@
       <c r="E138" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F138" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+      <c r="G138" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>9</v>
       </c>
@@ -3598,11 +3751,12 @@
       <c r="E139" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F139" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+      <c r="G139" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>9</v>
       </c>
@@ -3618,11 +3772,12 @@
       <c r="E140" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+      <c r="G140" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>9</v>
       </c>
@@ -3638,11 +3793,12 @@
       <c r="E141" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F141" s="3"/>
+      <c r="G141" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>9</v>
       </c>
@@ -3658,11 +3814,12 @@
       <c r="E142" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F142" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F142" s="3"/>
+      <c r="G142" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -3678,11 +3835,12 @@
       <c r="E143" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+      <c r="G143" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>9</v>
       </c>
@@ -3698,11 +3856,12 @@
       <c r="E144" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F144" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>9</v>
       </c>
@@ -3718,11 +3877,12 @@
       <c r="E145" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F145" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F145" s="3"/>
+      <c r="G145" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>9</v>
       </c>
@@ -3738,11 +3898,12 @@
       <c r="E146" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F146" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F146" s="3"/>
+      <c r="G146" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>9</v>
       </c>
@@ -3758,11 +3919,12 @@
       <c r="E147" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F147" s="3"/>
+      <c r="G147" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>9</v>
       </c>
@@ -3778,11 +3940,12 @@
       <c r="E148" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>9</v>
       </c>
@@ -3798,11 +3961,12 @@
       <c r="E149" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F149" s="3"/>
+      <c r="G149" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>9</v>
       </c>
@@ -3818,11 +3982,12 @@
       <c r="E150" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F150" s="3"/>
+      <c r="G150" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>9</v>
       </c>
@@ -3838,11 +4003,12 @@
       <c r="E151" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F151" s="3"/>
+      <c r="G151" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>9</v>
       </c>
@@ -3858,11 +4024,12 @@
       <c r="E152" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F152" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F152" s="3"/>
+      <c r="G152" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>9</v>
       </c>
@@ -3878,11 +4045,12 @@
       <c r="E153" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F153" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F153" s="3"/>
+      <c r="G153" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>9</v>
       </c>
@@ -3898,11 +4066,12 @@
       <c r="E154" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F154" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F154" s="3"/>
+      <c r="G154" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>9</v>
       </c>
@@ -3918,11 +4087,12 @@
       <c r="E155" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="F155" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="54" x14ac:dyDescent="0.25">
+      <c r="F155" s="3"/>
+      <c r="G155" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>9</v>
       </c>
@@ -3938,11 +4108,12 @@
       <c r="E156" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F156" s="3"/>
+      <c r="G156" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>9</v>
       </c>
@@ -3958,11 +4129,12 @@
       <c r="E157" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F157" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F157" s="3"/>
+      <c r="G157" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>9</v>
       </c>
@@ -3978,11 +4150,12 @@
       <c r="E158" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F158" s="3"/>
+      <c r="G158" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>9</v>
       </c>
@@ -3998,11 +4171,12 @@
       <c r="E159" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F159" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F159" s="3"/>
+      <c r="G159" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>9</v>
       </c>
@@ -4018,11 +4192,12 @@
       <c r="E160" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F160" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F160" s="3"/>
+      <c r="G160" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>9</v>
       </c>
@@ -4038,11 +4213,12 @@
       <c r="E161" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F161" s="3"/>
+      <c r="G161" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>9</v>
       </c>
@@ -4058,11 +4234,12 @@
       <c r="E162" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F162" s="3"/>
+      <c r="G162" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>9</v>
       </c>
@@ -4078,11 +4255,12 @@
       <c r="E163" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F163" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F163" s="3"/>
+      <c r="G163" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>9</v>
       </c>
@@ -4098,11 +4276,12 @@
       <c r="E164" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F164" s="3"/>
+      <c r="G164" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>9</v>
       </c>
@@ -4118,11 +4297,12 @@
       <c r="E165" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F165" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="F165" s="3"/>
+      <c r="G165" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>9</v>
       </c>
@@ -4138,11 +4318,12 @@
       <c r="E166" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F166" s="3"/>
+      <c r="G166" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>9</v>
       </c>
@@ -4158,11 +4339,12 @@
       <c r="E167" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="F167" s="3"/>
+      <c r="G167" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4360,8 @@
       <c r="E168" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="3"/>
+      <c r="G168" s="3" t="s">
         <v>4</v>
       </c>
     </row>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3714512-827F-4250-8959-612905BCC5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D47742-7BFB-4A38-AE36-024561F87402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -809,7 +809,7 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7FBA64-D3C2-44E0-B117-65B9B7DA65DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B66800-272C-4FEA-83F1-86B7B9AA73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>subject</t>
   </si>
   <si>
-    <t>coleta periodica off line</t>
-  </si>
-  <si>
     <t>sistema online</t>
   </si>
   <si>
@@ -617,13 +614,16 @@
   </si>
   <si>
     <t>gateway conectado mas não aparece na interface, sem comunicação do gateway na interface</t>
+  </si>
+  <si>
+    <t>coleta periodica offline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,6 +659,20 @@
       <sz val="12"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="MS Shell Dlg 2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -753,7 +767,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -770,6 +784,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1086,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -1129,22 +1147,22 @@
     </row>
     <row r="2" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1154,22 +1172,22 @@
     </row>
     <row r="3" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -1179,22 +1197,22 @@
     </row>
     <row r="4" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -1204,47 +1222,48 @@
     </row>
     <row r="5" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="I5" s="7"/>
       <c r="J5" s="3"/>
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -1254,22 +1273,22 @@
     </row>
     <row r="7" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
@@ -1279,22 +1298,22 @@
     </row>
     <row r="8" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>4</v>
@@ -1304,22 +1323,22 @@
     </row>
     <row r="9" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
@@ -1329,22 +1348,22 @@
     </row>
     <row r="10" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -1354,22 +1373,22 @@
     </row>
     <row r="11" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1379,22 +1398,22 @@
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -1404,22 +1423,22 @@
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -1429,22 +1448,22 @@
     </row>
     <row r="14" spans="1:11" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
@@ -1454,22 +1473,22 @@
     </row>
     <row r="15" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
@@ -1479,22 +1498,22 @@
     </row>
     <row r="16" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
@@ -1504,22 +1523,22 @@
     </row>
     <row r="17" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
@@ -1529,22 +1548,22 @@
     </row>
     <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
@@ -1554,22 +1573,22 @@
     </row>
     <row r="19" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -1579,22 +1598,22 @@
     </row>
     <row r="20" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
@@ -1604,22 +1623,22 @@
     </row>
     <row r="21" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1629,22 +1648,22 @@
     </row>
     <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
@@ -1652,22 +1671,22 @@
     </row>
     <row r="23" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1675,22 +1694,22 @@
     </row>
     <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
@@ -1698,22 +1717,22 @@
     </row>
     <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
@@ -1721,22 +1740,22 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
@@ -1744,22 +1763,22 @@
     </row>
     <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>4</v>
@@ -1767,22 +1786,22 @@
     </row>
     <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1790,22 +1809,22 @@
     </row>
     <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="F29" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
@@ -1813,22 +1832,22 @@
     </row>
     <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -1836,22 +1855,22 @@
     </row>
     <row r="31" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>4</v>
@@ -1861,22 +1880,22 @@
     </row>
     <row r="32" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
@@ -1886,22 +1905,22 @@
     </row>
     <row r="33" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>4</v>
@@ -1911,22 +1930,22 @@
     </row>
     <row r="34" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -1936,22 +1955,22 @@
     </row>
     <row r="35" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -1961,22 +1980,22 @@
     </row>
     <row r="36" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>4</v>
@@ -1986,22 +2005,22 @@
     </row>
     <row r="37" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -2011,22 +2030,22 @@
     </row>
     <row r="38" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="D38" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>4</v>
@@ -2036,22 +2055,22 @@
     </row>
     <row r="39" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>4</v>
@@ -2061,22 +2080,22 @@
     </row>
     <row r="40" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>4</v>
@@ -2086,22 +2105,22 @@
     </row>
     <row r="41" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -2111,22 +2130,22 @@
     </row>
     <row r="42" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>4</v>
@@ -2136,22 +2155,22 @@
     </row>
     <row r="43" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
@@ -2161,22 +2180,22 @@
     </row>
     <row r="44" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>4</v>
@@ -2186,22 +2205,22 @@
     </row>
     <row r="45" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>4</v>
@@ -2211,22 +2230,22 @@
     </row>
     <row r="46" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
@@ -2236,22 +2255,22 @@
     </row>
     <row r="47" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
@@ -2261,22 +2280,22 @@
     </row>
     <row r="48" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D48" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>4</v>
@@ -2286,22 +2305,22 @@
     </row>
     <row r="49" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
@@ -2311,22 +2330,22 @@
     </row>
     <row r="50" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>4</v>
@@ -2336,22 +2355,22 @@
     </row>
     <row r="51" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F51" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>4</v>
@@ -2361,22 +2380,22 @@
     </row>
     <row r="52" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -2386,22 +2405,22 @@
     </row>
     <row r="53" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
@@ -2411,22 +2430,22 @@
     </row>
     <row r="54" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>4</v>
@@ -2436,22 +2455,22 @@
     </row>
     <row r="55" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>4</v>
@@ -2461,22 +2480,22 @@
     </row>
     <row r="56" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>4</v>
@@ -2484,22 +2503,22 @@
     </row>
     <row r="57" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -2507,22 +2526,22 @@
     </row>
     <row r="58" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
@@ -2530,22 +2549,22 @@
     </row>
     <row r="59" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
@@ -2553,22 +2572,22 @@
     </row>
     <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>4</v>
@@ -2576,22 +2595,22 @@
     </row>
     <row r="61" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>4</v>
@@ -2599,22 +2618,22 @@
     </row>
     <row r="62" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>4</v>
@@ -2622,22 +2641,22 @@
     </row>
     <row r="63" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>4</v>
@@ -2645,22 +2664,22 @@
     </row>
     <row r="64" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>4</v>
@@ -2668,22 +2687,22 @@
     </row>
     <row r="65" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>4</v>
@@ -2691,22 +2710,22 @@
     </row>
     <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -2714,22 +2733,22 @@
     </row>
     <row r="67" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>4</v>
@@ -2737,22 +2756,22 @@
     </row>
     <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>4</v>
@@ -2760,22 +2779,22 @@
     </row>
     <row r="69" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D69" s="2">
         <v>17</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>4</v>
@@ -2783,22 +2802,22 @@
     </row>
     <row r="70" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D70" s="2">
         <v>13</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
@@ -2806,22 +2825,22 @@
     </row>
     <row r="71" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D71" s="2">
         <v>13</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
@@ -2829,22 +2848,22 @@
     </row>
     <row r="72" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D72" s="2">
         <v>2021</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
@@ -2852,22 +2871,22 @@
     </row>
     <row r="73" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" s="2">
         <v>2014</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -2875,22 +2894,22 @@
     </row>
     <row r="74" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" s="2">
         <v>2019</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>4</v>
@@ -2898,22 +2917,22 @@
     </row>
     <row r="75" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2">
         <v>2019</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>4</v>
@@ -2921,22 +2940,22 @@
     </row>
     <row r="76" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F76" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -2944,22 +2963,22 @@
     </row>
     <row r="77" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E77" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>4</v>
@@ -2967,22 +2986,22 @@
     </row>
     <row r="78" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -2990,22 +3009,22 @@
     </row>
     <row r="79" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E79" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>4</v>
@@ -3013,22 +3032,22 @@
     </row>
     <row r="80" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>4</v>
@@ -3036,22 +3055,22 @@
     </row>
     <row r="81" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>4</v>
@@ -3059,22 +3078,22 @@
     </row>
     <row r="82" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>4</v>
@@ -3082,22 +3101,22 @@
     </row>
     <row r="83" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>4</v>
@@ -3105,22 +3124,22 @@
     </row>
     <row r="84" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>4</v>
@@ -3128,22 +3147,22 @@
     </row>
     <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>4</v>
@@ -3151,22 +3170,22 @@
     </row>
     <row r="86" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>4</v>
@@ -3174,22 +3193,22 @@
     </row>
     <row r="87" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>4</v>
@@ -3197,22 +3216,22 @@
     </row>
     <row r="88" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="E88" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>4</v>
@@ -3220,22 +3239,22 @@
     </row>
     <row r="89" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>4</v>
@@ -3243,22 +3262,22 @@
     </row>
     <row r="90" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D90" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -3266,22 +3285,22 @@
     </row>
     <row r="91" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>4</v>
@@ -3289,22 +3308,22 @@
     </row>
     <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>4</v>
@@ -3312,22 +3331,22 @@
     </row>
     <row r="93" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>4</v>
@@ -3335,22 +3354,22 @@
     </row>
     <row r="94" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>4</v>
@@ -3358,22 +3377,22 @@
     </row>
     <row r="95" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>4</v>
@@ -3381,22 +3400,22 @@
     </row>
     <row r="96" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>4</v>
@@ -3404,22 +3423,22 @@
     </row>
     <row r="97" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>4</v>
@@ -3427,22 +3446,22 @@
     </row>
     <row r="98" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>4</v>
@@ -3450,22 +3469,22 @@
     </row>
     <row r="99" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>4</v>
@@ -3473,22 +3492,22 @@
     </row>
     <row r="100" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>4</v>
@@ -3496,22 +3515,22 @@
     </row>
     <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>4</v>
@@ -3519,22 +3538,22 @@
     </row>
     <row r="102" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>4</v>
@@ -3542,22 +3561,22 @@
     </row>
     <row r="103" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>4</v>
@@ -3565,22 +3584,22 @@
     </row>
     <row r="104" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -3588,22 +3607,22 @@
     </row>
     <row r="105" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3611,22 +3630,22 @@
     </row>
     <row r="106" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>4</v>
@@ -3634,22 +3653,22 @@
     </row>
     <row r="107" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>4</v>
@@ -3657,22 +3676,22 @@
     </row>
     <row r="108" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>4</v>
@@ -3680,22 +3699,22 @@
     </row>
     <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>4</v>
@@ -3703,22 +3722,22 @@
     </row>
     <row r="110" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D110" s="2">
         <v>17</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>4</v>
@@ -3726,22 +3745,22 @@
     </row>
     <row r="111" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D111" s="2">
         <v>13</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>4</v>
@@ -3749,22 +3768,22 @@
     </row>
     <row r="112" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D112" s="2">
         <v>13</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>4</v>
@@ -3772,22 +3791,22 @@
     </row>
     <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D113" s="2">
         <v>2021</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>4</v>
@@ -3795,22 +3814,22 @@
     </row>
     <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D114" s="2">
         <v>2014</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>4</v>
@@ -3818,22 +3837,22 @@
     </row>
     <row r="115" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D115" s="2">
         <v>2019</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>4</v>
@@ -3841,22 +3860,22 @@
     </row>
     <row r="116" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D116" s="2">
         <v>2019</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>4</v>
@@ -3864,22 +3883,22 @@
     </row>
     <row r="117" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C117" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="E117" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="F117" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -3887,22 +3906,22 @@
     </row>
     <row r="118" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C118" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="E118" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>4</v>
@@ -3910,22 +3929,22 @@
     </row>
     <row r="119" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F119" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>4</v>
@@ -3933,22 +3952,22 @@
     </row>
     <row r="120" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E120" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>4</v>
@@ -3956,22 +3975,22 @@
     </row>
     <row r="121" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C121" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E121" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>4</v>
@@ -3979,22 +3998,22 @@
     </row>
     <row r="122" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D122" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F122" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>4</v>
@@ -4002,22 +4021,22 @@
     </row>
     <row r="123" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>4</v>
@@ -4025,22 +4044,22 @@
     </row>
     <row r="124" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>4</v>
@@ -4048,22 +4067,22 @@
     </row>
     <row r="125" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D125" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="F125" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
@@ -4071,22 +4090,22 @@
     </row>
     <row r="126" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>4</v>
@@ -4094,22 +4113,22 @@
     </row>
     <row r="127" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>4</v>
@@ -4117,22 +4136,22 @@
     </row>
     <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F128" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>4</v>
@@ -4140,22 +4159,22 @@
     </row>
     <row r="129" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D129" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>4</v>
@@ -4165,22 +4184,22 @@
     </row>
     <row r="130" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D130" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>4</v>
@@ -4190,22 +4209,22 @@
     </row>
     <row r="131" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C131" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D131" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>4</v>
@@ -4215,22 +4234,22 @@
     </row>
     <row r="132" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D132" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>4</v>
@@ -4240,22 +4259,22 @@
     </row>
     <row r="133" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D133" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>4</v>
@@ -4265,22 +4284,22 @@
     </row>
     <row r="134" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C134" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D134" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>4</v>
@@ -4290,22 +4309,22 @@
     </row>
     <row r="135" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D135" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>4</v>
@@ -4315,22 +4334,22 @@
     </row>
     <row r="136" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C136" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D136" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>4</v>
@@ -4340,22 +4359,22 @@
     </row>
     <row r="137" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C137" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="D137" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -4365,22 +4384,22 @@
     </row>
     <row r="138" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>4</v>
@@ -4390,22 +4409,22 @@
     </row>
     <row r="139" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -4415,22 +4434,22 @@
     </row>
     <row r="140" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>4</v>
@@ -4440,22 +4459,22 @@
     </row>
     <row r="141" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>4</v>
@@ -4465,22 +4484,22 @@
     </row>
     <row r="142" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>4</v>
@@ -4490,22 +4509,22 @@
     </row>
     <row r="143" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>4</v>
@@ -4515,22 +4534,22 @@
     </row>
     <row r="144" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>4</v>
@@ -4540,22 +4559,22 @@
     </row>
     <row r="145" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>4</v>
@@ -4563,22 +4582,22 @@
     </row>
     <row r="146" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>4</v>
@@ -4586,22 +4605,22 @@
     </row>
     <row r="147" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>4</v>
@@ -4609,22 +4628,22 @@
     </row>
     <row r="148" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>4</v>
@@ -4632,22 +4651,22 @@
     </row>
     <row r="149" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>4</v>
@@ -4655,22 +4674,22 @@
     </row>
     <row r="150" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>4</v>
@@ -4678,22 +4697,22 @@
     </row>
     <row r="151" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>4</v>
@@ -4701,22 +4720,22 @@
     </row>
     <row r="152" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>4</v>
@@ -4724,22 +4743,22 @@
     </row>
     <row r="153" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>4</v>
@@ -4747,22 +4766,22 @@
     </row>
     <row r="154" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>4</v>
@@ -4770,22 +4789,22 @@
     </row>
     <row r="155" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>4</v>
@@ -4793,22 +4812,22 @@
     </row>
     <row r="156" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B156" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="D156" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F156" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>4</v>
@@ -4816,22 +4835,22 @@
     </row>
     <row r="157" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="E157" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="F157" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>4</v>
@@ -4839,22 +4858,22 @@
     </row>
     <row r="158" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C158" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D158" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E158" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>4</v>
@@ -4862,22 +4881,22 @@
     </row>
     <row r="159" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C159" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E159" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>4</v>
@@ -4885,22 +4904,22 @@
     </row>
     <row r="160" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C160" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E160" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>4</v>
@@ -4908,22 +4927,22 @@
     </row>
     <row r="161" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>4</v>
@@ -4931,22 +4950,22 @@
     </row>
     <row r="162" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C162" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E162" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>4</v>
@@ -4954,22 +4973,22 @@
     </row>
     <row r="163" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>4</v>
@@ -4977,22 +4996,22 @@
     </row>
     <row r="164" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>4</v>
@@ -5000,22 +5019,22 @@
     </row>
     <row r="165" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>4</v>
@@ -5023,22 +5042,22 @@
     </row>
     <row r="166" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>4</v>
@@ -5046,22 +5065,22 @@
     </row>
     <row r="167" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>4</v>
@@ -5069,22 +5088,22 @@
     </row>
     <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>4</v>
@@ -5113,162 +5132,162 @@
   <sheetData>
     <row r="1" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>132</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>136</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>138</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>150</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>154</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B66800-272C-4FEA-83F1-86B7B9AA73D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A649A32-2CE3-44DA-9822-1869B56FAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A649A32-2CE3-44DA-9822-1869B56FAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AE5D1-FA07-4F85-90A1-31EED24A4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="177">
   <si>
     <t>interface</t>
   </si>
@@ -373,121 +372,61 @@
     <t>description</t>
   </si>
   <si>
-    <t>Coletor não liga</t>
-  </si>
-  <si>
     <t>Coletor não funciona, Coletor não inicializa, Coletor não acende</t>
   </si>
   <si>
-    <t>Coletor travado</t>
-  </si>
-  <si>
     <t>Coletor não responde, Coletor não se move, Coletor não funciona corretamente</t>
   </si>
   <si>
-    <t>Alerta de ruído ou ausência de sinal</t>
-  </si>
-  <si>
     <t>Alarme de som, Alerta de barulho, Alerta de falta de sinal, Alerta sonoro</t>
   </si>
   <si>
-    <t>Alerta de overload</t>
-  </si>
-  <si>
     <t>Alerta de sobrecarga, Alerta de carga máxima, Alerta de excesso de carga</t>
   </si>
   <si>
-    <t>Alerta de underload</t>
-  </si>
-  <si>
     <t>Alerta de carga mínima, Alerta de carga insuficiente, Alerta de pouca carga</t>
   </si>
   <si>
-    <t>Falha no teclado de membrana</t>
-  </si>
-  <si>
     <t>Teclado não funciona, Teclas não respondem, Teclado não responde corretamente</t>
   </si>
   <si>
-    <t>Problema na conexão internet via Wi-Fi</t>
-  </si>
-  <si>
     <t>Problema de conexão Wi-Fi, Falha na conexão Wi-Fi, Wi-Fi não funciona</t>
   </si>
   <si>
-    <t>Problema na conexão internet via USB</t>
-  </si>
-  <si>
     <t>Problema de conexão USB, Falha na conexão USB, USB não funciona</t>
   </si>
   <si>
-    <t>Não está salvando as medições</t>
-  </si>
-  <si>
     <t>Dados não são salvos, Medições não são salvas, Problema de armazenamento</t>
   </si>
   <si>
-    <t>Equipamento não liga</t>
-  </si>
-  <si>
     <t>Equipamento não funciona, Equipamento não inicializa, Equipamento não acende</t>
   </si>
   <si>
-    <t>Imagem desfocada</t>
-  </si>
-  <si>
     <t>Imagem embaçada, Imagem não nítida, Imagem não focada</t>
   </si>
   <si>
-    <t>Termograma preto</t>
-  </si>
-  <si>
     <t>Imagem termográfica em preto, Termograma sem imagem, Termograma sem leitura</t>
   </si>
   <si>
-    <t>Não salva o termograma</t>
-  </si>
-  <si>
     <t>Termograma não é salvo, Problema de armazenamento de termograma, Dados termográficos não são armazenados</t>
   </si>
   <si>
-    <t>Não carrega a bateria</t>
-  </si>
-  <si>
     <t>Bateria não carrega, Problema de carregamento, Problema na fonte de energia</t>
   </si>
   <si>
-    <t>Câmera liga mas não funciona corretamente</t>
-  </si>
-  <si>
     <t>Problema com a câmera, Câmera não responde, Câmera não grava corretamente</t>
   </si>
   <si>
-    <t>Câmera embaçada ou vídeos lavados</t>
-  </si>
-  <si>
     <t>Imagem da câmera desfocada, Vídeos da câmera sem qualidade, Vídeos da câmera não nítidos</t>
   </si>
   <si>
-    <t>Câmera não se conecta no USB</t>
-  </si>
-  <si>
     <t>Problema de conexão USB da câmera, Falha na conexão USB da câmera, Câmera não se comunica com o computador</t>
   </si>
   <si>
-    <t>Câmera não segura carga</t>
-  </si>
-  <si>
     <t>Bateria da câmera não dura, Problema de bateria da câmera, Câmera não segura carga</t>
   </si>
   <si>
-    <t>Bateria baixa</t>
-  </si>
-  <si>
     <t>Pouca carga na bateria, Bateria descarregando, Bateria fraca</t>
-  </si>
-  <si>
-    <t>Não lê corrente</t>
   </si>
   <si>
     <t>Problema de leitura de corrente, Falha na leitura de corrente, Corrente não é lida</t>
@@ -1105,7 +1044,7 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1086,7 @@
     </row>
     <row r="2" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1162,7 +1101,7 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>4</v>
@@ -1172,7 +1111,7 @@
     </row>
     <row r="3" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1187,7 +1126,7 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
@@ -1197,7 +1136,7 @@
     </row>
     <row r="4" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1212,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>4</v>
@@ -1222,7 +1161,7 @@
     </row>
     <row r="5" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1237,7 +1176,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -1248,7 +1187,7 @@
     </row>
     <row r="6" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -1263,7 +1202,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -1273,7 +1212,7 @@
     </row>
     <row r="7" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1288,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
@@ -1298,7 +1237,7 @@
     </row>
     <row r="8" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1313,7 +1252,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>4</v>
@@ -1323,7 +1262,7 @@
     </row>
     <row r="9" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1338,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
@@ -1348,7 +1287,7 @@
     </row>
     <row r="10" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1363,7 +1302,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -1373,7 +1312,7 @@
     </row>
     <row r="11" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1388,7 +1327,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1398,7 +1337,7 @@
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1413,7 +1352,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -1423,7 +1362,7 @@
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1438,7 +1377,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -1448,7 +1387,7 @@
     </row>
     <row r="14" spans="1:11" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1463,7 +1402,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
@@ -1473,7 +1412,7 @@
     </row>
     <row r="15" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -1488,7 +1427,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
@@ -1498,7 +1437,7 @@
     </row>
     <row r="16" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -1513,7 +1452,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
@@ -1523,7 +1462,7 @@
     </row>
     <row r="17" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1538,7 +1477,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
@@ -1548,7 +1487,7 @@
     </row>
     <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1563,7 +1502,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
@@ -1573,7 +1512,7 @@
     </row>
     <row r="19" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1588,7 +1527,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -1598,7 +1537,7 @@
     </row>
     <row r="20" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1613,7 +1552,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
@@ -1623,7 +1562,7 @@
     </row>
     <row r="21" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1638,7 +1577,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1648,7 +1587,7 @@
     </row>
     <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1663,7 +1602,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
@@ -1671,7 +1610,7 @@
     </row>
     <row r="23" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1686,7 +1625,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1694,7 +1633,7 @@
     </row>
     <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1709,7 +1648,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
@@ -1717,7 +1656,7 @@
     </row>
     <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1732,7 +1671,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
@@ -1740,7 +1679,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1755,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
@@ -1763,7 +1702,7 @@
     </row>
     <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1778,7 +1717,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>4</v>
@@ -1786,7 +1725,7 @@
     </row>
     <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1801,7 +1740,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1809,7 +1748,7 @@
     </row>
     <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1824,7 +1763,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
@@ -1832,7 +1771,7 @@
     </row>
     <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1847,7 +1786,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -1870,7 +1809,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>4</v>
@@ -1895,7 +1834,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
@@ -1920,7 +1859,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>4</v>
@@ -1945,7 +1884,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -1970,7 +1909,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -1995,7 +1934,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>4</v>
@@ -2020,7 +1959,7 @@
         <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -2045,7 +1984,7 @@
         <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2009,7 @@
         <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>4</v>
@@ -2095,7 +2034,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>4</v>
@@ -2120,7 +2059,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -2145,7 +2084,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>4</v>
@@ -2170,7 +2109,7 @@
         <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
@@ -2195,7 +2134,7 @@
         <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>4</v>
@@ -2220,7 +2159,7 @@
         <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>4</v>
@@ -2245,7 +2184,7 @@
         <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
@@ -2270,7 +2209,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
@@ -2295,7 +2234,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>4</v>
@@ -2320,7 +2259,7 @@
         <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
@@ -2345,7 +2284,7 @@
         <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>4</v>
@@ -2370,7 +2309,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>4</v>
@@ -2395,7 +2334,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -2420,7 +2359,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
@@ -2445,7 +2384,7 @@
         <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>4</v>
@@ -2470,7 +2409,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>4</v>
@@ -2495,7 +2434,7 @@
         <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>4</v>
@@ -2518,7 +2457,7 @@
         <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -2541,7 +2480,7 @@
         <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
@@ -2564,7 +2503,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
@@ -2587,7 +2526,7 @@
         <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>4</v>
@@ -2610,7 +2549,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>4</v>
@@ -2633,7 +2572,7 @@
         <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>4</v>
@@ -2656,7 +2595,7 @@
         <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>4</v>
@@ -2679,7 +2618,7 @@
         <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>4</v>
@@ -2702,7 +2641,7 @@
         <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>4</v>
@@ -2725,7 +2664,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -2748,7 +2687,7 @@
         <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>4</v>
@@ -2771,7 +2710,7 @@
         <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>4</v>
@@ -2794,7 +2733,7 @@
         <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>4</v>
@@ -2817,7 +2756,7 @@
         <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
@@ -2840,7 +2779,7 @@
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
@@ -2863,7 +2802,7 @@
         <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
@@ -2886,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -2909,7 +2848,7 @@
         <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>4</v>
@@ -2932,7 +2871,7 @@
         <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>4</v>
@@ -2955,7 +2894,7 @@
         <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -2978,7 +2917,7 @@
         <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>4</v>
@@ -3001,7 +2940,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -3024,7 +2963,7 @@
         <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>4</v>
@@ -3047,7 +2986,7 @@
         <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>4</v>
@@ -3070,7 +3009,7 @@
         <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>4</v>
@@ -3093,7 +3032,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>4</v>
@@ -3116,7 +3055,7 @@
         <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>4</v>
@@ -3139,7 +3078,7 @@
         <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>4</v>
@@ -3162,7 +3101,7 @@
         <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>4</v>
@@ -3185,7 +3124,7 @@
         <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>4</v>
@@ -3208,7 +3147,7 @@
         <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>4</v>
@@ -3231,7 +3170,7 @@
         <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>4</v>
@@ -3254,7 +3193,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>4</v>
@@ -3277,7 +3216,7 @@
         <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -3300,7 +3239,7 @@
         <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>4</v>
@@ -3323,7 +3262,7 @@
         <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>4</v>
@@ -3346,7 +3285,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>4</v>
@@ -3369,7 +3308,7 @@
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>4</v>
@@ -3392,7 +3331,7 @@
         <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>4</v>
@@ -3415,7 +3354,7 @@
         <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>4</v>
@@ -3438,7 +3377,7 @@
         <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>4</v>
@@ -3461,7 +3400,7 @@
         <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>4</v>
@@ -3484,7 +3423,7 @@
         <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>4</v>
@@ -3507,7 +3446,7 @@
         <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>4</v>
@@ -3530,7 +3469,7 @@
         <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>4</v>
@@ -3553,7 +3492,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>4</v>
@@ -3576,7 +3515,7 @@
         <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>4</v>
@@ -3599,7 +3538,7 @@
         <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -3622,7 +3561,7 @@
         <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3645,7 +3584,7 @@
         <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>4</v>
@@ -3668,7 +3607,7 @@
         <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>4</v>
@@ -3691,7 +3630,7 @@
         <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>4</v>
@@ -3714,7 +3653,7 @@
         <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>4</v>
@@ -3737,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>4</v>
@@ -3760,7 +3699,7 @@
         <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>4</v>
@@ -3783,7 +3722,7 @@
         <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>4</v>
@@ -3806,7 +3745,7 @@
         <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>4</v>
@@ -3829,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>4</v>
@@ -3852,7 +3791,7 @@
         <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>4</v>
@@ -3875,7 +3814,7 @@
         <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>4</v>
@@ -3898,7 +3837,7 @@
         <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -3921,7 +3860,7 @@
         <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>4</v>
@@ -3944,7 +3883,7 @@
         <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>4</v>
@@ -3967,7 +3906,7 @@
         <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>4</v>
@@ -3990,7 +3929,7 @@
         <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>4</v>
@@ -4013,7 +3952,7 @@
         <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>4</v>
@@ -4036,7 +3975,7 @@
         <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>4</v>
@@ -4059,7 +3998,7 @@
         <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>4</v>
@@ -4082,7 +4021,7 @@
         <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
@@ -4105,7 +4044,7 @@
         <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>4</v>
@@ -4128,7 +4067,7 @@
         <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>4</v>
@@ -4151,7 +4090,7 @@
         <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>4</v>
@@ -4174,7 +4113,7 @@
         <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>4</v>
@@ -4199,7 +4138,7 @@
         <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>4</v>
@@ -4224,7 +4163,7 @@
         <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>4</v>
@@ -4249,7 +4188,7 @@
         <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>4</v>
@@ -4274,7 +4213,7 @@
         <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>4</v>
@@ -4299,7 +4238,7 @@
         <v>70</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>4</v>
@@ -4324,7 +4263,7 @@
         <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>4</v>
@@ -4349,7 +4288,7 @@
         <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>4</v>
@@ -4374,7 +4313,7 @@
         <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -4399,7 +4338,7 @@
         <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>4</v>
@@ -4424,7 +4363,7 @@
         <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -4449,7 +4388,7 @@
         <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>4</v>
@@ -4474,7 +4413,7 @@
         <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>4</v>
@@ -4499,7 +4438,7 @@
         <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>4</v>
@@ -4524,7 +4463,7 @@
         <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>4</v>
@@ -4549,7 +4488,7 @@
         <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>4</v>
@@ -4574,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>4</v>
@@ -4597,7 +4536,7 @@
         <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>4</v>
@@ -4620,7 +4559,7 @@
         <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>4</v>
@@ -4643,7 +4582,7 @@
         <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>4</v>
@@ -4666,7 +4605,7 @@
         <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>4</v>
@@ -4689,7 +4628,7 @@
         <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>4</v>
@@ -4712,7 +4651,7 @@
         <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>4</v>
@@ -4735,7 +4674,7 @@
         <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>4</v>
@@ -4758,7 +4697,7 @@
         <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>4</v>
@@ -4781,7 +4720,7 @@
         <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>4</v>
@@ -4804,7 +4743,7 @@
         <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>4</v>
@@ -4827,7 +4766,7 @@
         <v>103</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>4</v>
@@ -4850,7 +4789,7 @@
         <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>4</v>
@@ -4873,7 +4812,7 @@
         <v>107</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>4</v>
@@ -4896,7 +4835,7 @@
         <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>4</v>
@@ -4919,7 +4858,7 @@
         <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>4</v>
@@ -4942,7 +4881,7 @@
         <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>4</v>
@@ -4965,7 +4904,7 @@
         <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>4</v>
@@ -4988,7 +4927,7 @@
         <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>4</v>
@@ -5011,7 +4950,7 @@
         <v>107</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>4</v>
@@ -5034,7 +4973,7 @@
         <v>108</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>4</v>
@@ -5057,7 +4996,7 @@
         <v>109</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>4</v>
@@ -5080,7 +5019,7 @@
         <v>110</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>4</v>
@@ -5103,7 +5042,7 @@
         <v>111</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>4</v>
@@ -5114,183 +5053,4 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3255211E-AF48-4A1C-BD9E-C4AF2D96FF97}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="A1:B20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
-    <col min="2" max="2" width="51" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="35.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\ChatbotSemeq\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30AE5D1-FA07-4F85-90A1-31EED24A4130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4712A8B-E16F-4854-A938-AF121F287F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1044,7 +1044,7 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4712A8B-E16F-4854-A938-AF121F287F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB45C12-8D71-4F31-9284-129F0A61B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herik\OneDrive\Área de Trabalho\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB45C12-8D71-4F31-9284-129F0A61B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F0CDDA-A2DC-4FB4-A001-F18F7318C5C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="178">
   <si>
     <t>interface</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Alarme de som, Alerta de barulho, Alerta de falta de sinal, Alerta sonoro</t>
   </si>
   <si>
-    <t>Alerta de sobrecarga, Alerta de carga máxima, Alerta de excesso de carga</t>
-  </si>
-  <si>
     <t>Alerta de carga mínima, Alerta de carga insuficiente, Alerta de pouca carga</t>
   </si>
   <si>
@@ -556,6 +553,12 @@
   </si>
   <si>
     <t>coleta periodica offline</t>
+  </si>
+  <si>
+    <t>Alerta de sobrecarga, Alerta de carga máxima, Alerta de excesso de carga,coletor está com alerta de sobrecarga,coletor está com alerta de overload</t>
+  </si>
+  <si>
+    <t>Falha ao carregar priorização, priorização do mysemeq não carrega</t>
   </si>
 </sst>
 </file>
@@ -1043,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1089,7 @@
     </row>
     <row r="2" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1111,7 +1114,7 @@
     </row>
     <row r="3" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1136,7 +1139,7 @@
     </row>
     <row r="4" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1159,9 +1162,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1176,7 +1179,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="6" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -1202,7 +1205,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
@@ -1212,7 +1215,7 @@
     </row>
     <row r="7" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1227,7 +1230,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="8" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1252,7 +1255,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>4</v>
@@ -1262,7 +1265,7 @@
     </row>
     <row r="9" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1277,7 +1280,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
@@ -1287,7 +1290,7 @@
     </row>
     <row r="10" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1302,7 +1305,7 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
@@ -1312,7 +1315,7 @@
     </row>
     <row r="11" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1327,7 +1330,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
@@ -1337,7 +1340,7 @@
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1352,7 +1355,7 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
@@ -1362,7 +1365,7 @@
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1377,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -1387,7 +1390,7 @@
     </row>
     <row r="14" spans="1:11" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1402,7 +1405,7 @@
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
@@ -1412,7 +1415,7 @@
     </row>
     <row r="15" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -1427,7 +1430,7 @@
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
@@ -1437,7 +1440,7 @@
     </row>
     <row r="16" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -1452,7 +1455,7 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
@@ -1462,7 +1465,7 @@
     </row>
     <row r="17" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1477,7 +1480,7 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
@@ -1487,7 +1490,7 @@
     </row>
     <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1502,7 +1505,7 @@
         <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
@@ -1512,7 +1515,7 @@
     </row>
     <row r="19" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1527,7 +1530,7 @@
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
@@ -1537,7 +1540,7 @@
     </row>
     <row r="20" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1552,7 +1555,7 @@
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="21" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1577,7 +1580,7 @@
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
@@ -1587,7 +1590,7 @@
     </row>
     <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1602,7 +1605,7 @@
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="23" spans="1:11" ht="108" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1625,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
@@ -1633,7 +1636,7 @@
     </row>
     <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1648,7 +1651,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1671,7 +1674,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
@@ -1679,7 +1682,7 @@
     </row>
     <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1694,7 +1697,7 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
@@ -1702,7 +1705,7 @@
     </row>
     <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1717,7 +1720,7 @@
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>4</v>
@@ -1725,7 +1728,7 @@
     </row>
     <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1740,7 +1743,7 @@
         <v>30</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
@@ -1748,7 +1751,7 @@
     </row>
     <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1763,7 +1766,7 @@
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
@@ -1771,7 +1774,7 @@
     </row>
     <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1786,7 +1789,7 @@
         <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
@@ -1809,7 +1812,7 @@
         <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>4</v>
@@ -1834,7 +1837,7 @@
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
@@ -1859,7 +1862,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>4</v>
@@ -1884,7 +1887,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -1909,7 +1912,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -1934,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>4</v>
@@ -1959,7 +1962,7 @@
         <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -1984,7 +1987,7 @@
         <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>4</v>
@@ -2009,7 +2012,7 @@
         <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>4</v>
@@ -2034,7 +2037,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>4</v>
@@ -2059,7 +2062,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -2084,7 +2087,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>4</v>
@@ -2109,7 +2112,7 @@
         <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
@@ -2134,7 +2137,7 @@
         <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>4</v>
@@ -2159,7 +2162,7 @@
         <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>4</v>
@@ -2184,7 +2187,7 @@
         <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
@@ -2209,7 +2212,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
@@ -2234,7 +2237,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>4</v>
@@ -2259,7 +2262,7 @@
         <v>62</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
@@ -2284,7 +2287,7 @@
         <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>4</v>
@@ -2309,7 +2312,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>4</v>
@@ -2334,7 +2337,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -2359,7 +2362,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
@@ -2384,7 +2387,7 @@
         <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>4</v>
@@ -2409,7 +2412,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>4</v>
@@ -2434,7 +2437,7 @@
         <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>4</v>
@@ -2457,7 +2460,7 @@
         <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -2480,13 +2483,13 @@
         <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="54" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
@@ -2503,7 +2506,7 @@
         <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
@@ -2526,7 +2529,7 @@
         <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>4</v>
@@ -2549,7 +2552,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>4</v>
@@ -2572,7 +2575,7 @@
         <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>4</v>
@@ -2595,7 +2598,7 @@
         <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>4</v>
@@ -2618,7 +2621,7 @@
         <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>4</v>
@@ -2641,7 +2644,7 @@
         <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>4</v>
@@ -2664,7 +2667,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -2687,7 +2690,7 @@
         <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>4</v>
@@ -2710,7 +2713,7 @@
         <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>4</v>
@@ -2733,7 +2736,7 @@
         <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>4</v>
@@ -2756,7 +2759,7 @@
         <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
@@ -2779,7 +2782,7 @@
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
@@ -2802,7 +2805,7 @@
         <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
@@ -2825,7 +2828,7 @@
         <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -2848,7 +2851,7 @@
         <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>4</v>
@@ -2871,7 +2874,7 @@
         <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>4</v>
@@ -2894,7 +2897,7 @@
         <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -2917,7 +2920,7 @@
         <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>4</v>
@@ -2940,7 +2943,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -2963,7 +2966,7 @@
         <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>4</v>
@@ -2986,7 +2989,7 @@
         <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>4</v>
@@ -3009,7 +3012,7 @@
         <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>4</v>
@@ -3032,7 +3035,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>4</v>
@@ -3055,7 +3058,7 @@
         <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>4</v>
@@ -3078,7 +3081,7 @@
         <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>4</v>
@@ -3101,7 +3104,7 @@
         <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>4</v>
@@ -3124,7 +3127,7 @@
         <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>4</v>
@@ -3147,7 +3150,7 @@
         <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>4</v>
@@ -3170,7 +3173,7 @@
         <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>4</v>
@@ -3193,7 +3196,7 @@
         <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>4</v>
@@ -3216,7 +3219,7 @@
         <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
@@ -3239,7 +3242,7 @@
         <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>4</v>
@@ -3262,7 +3265,7 @@
         <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>4</v>
@@ -3285,7 +3288,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>4</v>
@@ -3308,7 +3311,7 @@
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>4</v>
@@ -3331,7 +3334,7 @@
         <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>4</v>
@@ -3354,7 +3357,7 @@
         <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>4</v>
@@ -3377,7 +3380,7 @@
         <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>4</v>
@@ -3400,7 +3403,7 @@
         <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>4</v>
@@ -3423,7 +3426,7 @@
         <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>4</v>
@@ -3446,7 +3449,7 @@
         <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>4</v>
@@ -3469,7 +3472,7 @@
         <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>4</v>
@@ -3492,7 +3495,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>4</v>
@@ -3515,7 +3518,7 @@
         <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>4</v>
@@ -3538,7 +3541,7 @@
         <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -3561,7 +3564,7 @@
         <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3584,7 +3587,7 @@
         <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>4</v>
@@ -3607,7 +3610,7 @@
         <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>4</v>
@@ -3630,7 +3633,7 @@
         <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>4</v>
@@ -3653,7 +3656,7 @@
         <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>4</v>
@@ -3676,7 +3679,7 @@
         <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>4</v>
@@ -3699,7 +3702,7 @@
         <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>4</v>
@@ -3722,7 +3725,7 @@
         <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>4</v>
@@ -3745,7 +3748,7 @@
         <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>4</v>
@@ -3768,7 +3771,7 @@
         <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>4</v>
@@ -3791,7 +3794,7 @@
         <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>4</v>
@@ -3814,7 +3817,7 @@
         <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>4</v>
@@ -3837,7 +3840,7 @@
         <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -3860,7 +3863,7 @@
         <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>4</v>
@@ -3883,7 +3886,7 @@
         <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>4</v>
@@ -3906,7 +3909,7 @@
         <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>4</v>
@@ -3929,7 +3932,7 @@
         <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>4</v>
@@ -3952,7 +3955,7 @@
         <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>4</v>
@@ -3975,7 +3978,7 @@
         <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>4</v>
@@ -3998,7 +4001,7 @@
         <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>4</v>
@@ -4021,7 +4024,7 @@
         <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
@@ -4044,7 +4047,7 @@
         <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>4</v>
@@ -4067,7 +4070,7 @@
         <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>4</v>
@@ -4090,7 +4093,7 @@
         <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>4</v>
@@ -4113,7 +4116,7 @@
         <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>4</v>
@@ -4138,7 +4141,7 @@
         <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>4</v>
@@ -4163,7 +4166,7 @@
         <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>4</v>
@@ -4188,7 +4191,7 @@
         <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>4</v>
@@ -4213,7 +4216,7 @@
         <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>4</v>
@@ -4238,7 +4241,7 @@
         <v>70</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>4</v>
@@ -4263,7 +4266,7 @@
         <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>4</v>
@@ -4288,7 +4291,7 @@
         <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>4</v>
@@ -4313,7 +4316,7 @@
         <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -4338,7 +4341,7 @@
         <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>4</v>
@@ -4363,7 +4366,7 @@
         <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -4388,7 +4391,7 @@
         <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>4</v>
@@ -4413,7 +4416,7 @@
         <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>4</v>
@@ -4438,7 +4441,7 @@
         <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>4</v>
@@ -4463,7 +4466,7 @@
         <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>4</v>
@@ -4488,7 +4491,7 @@
         <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>4</v>
@@ -4513,7 +4516,7 @@
         <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>4</v>
@@ -4536,7 +4539,7 @@
         <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>4</v>
@@ -4559,7 +4562,7 @@
         <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>4</v>
@@ -4582,7 +4585,7 @@
         <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>4</v>
@@ -4605,7 +4608,7 @@
         <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>4</v>
@@ -4628,7 +4631,7 @@
         <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>4</v>
@@ -4651,7 +4654,7 @@
         <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>4</v>
@@ -4674,7 +4677,7 @@
         <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>4</v>
@@ -4697,7 +4700,7 @@
         <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>4</v>
@@ -4720,7 +4723,7 @@
         <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>4</v>
@@ -4743,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>4</v>
@@ -4766,7 +4769,7 @@
         <v>103</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>4</v>
@@ -4789,7 +4792,7 @@
         <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>4</v>
@@ -4812,7 +4815,7 @@
         <v>107</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>4</v>
@@ -4835,7 +4838,7 @@
         <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>4</v>
@@ -4858,7 +4861,7 @@
         <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>4</v>
@@ -4881,7 +4884,7 @@
         <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>4</v>
@@ -4904,7 +4907,7 @@
         <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>4</v>
@@ -4927,7 +4930,7 @@
         <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>4</v>
@@ -4950,7 +4953,7 @@
         <v>107</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>4</v>
@@ -4973,7 +4976,7 @@
         <v>108</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>4</v>
@@ -4996,7 +4999,7 @@
         <v>109</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>4</v>
@@ -5019,7 +5022,7 @@
         <v>110</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>4</v>
@@ -5042,7 +5045,7 @@
         <v>111</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>4</v>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB45C12-8D71-4F31-9284-129F0A61B51B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73011E3B-1AE1-4EAE-9A61-A717D30D6096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C69A93C-CD3F-4EE6-B1DD-712071BAE2B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131708C2-B7D2-41B4-9FB7-3A265A84C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:K168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+      <selection activeCell="E1" sqref="E1:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131708C2-B7D2-41B4-9FB7-3A265A84C589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCC759-C4A2-43E1-9791-3F16ECF6EAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -1046,8 +1046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BCC759-C4A2-43E1-9791-3F16ECF6EAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798E4115-6BD0-4BBB-9757-D6C809615E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="189">
   <si>
     <t>interface</t>
   </si>
@@ -372,200 +372,233 @@
     <t>description</t>
   </si>
   <si>
-    <t>Coletor não funciona, Coletor não inicializa, Coletor não acende</t>
-  </si>
-  <si>
-    <t>Coletor não responde, Coletor não se move, Coletor não funciona corretamente</t>
-  </si>
-  <si>
-    <t>Alarme de som, Alerta de barulho, Alerta de falta de sinal, Alerta sonoro</t>
-  </si>
-  <si>
-    <t>Alerta de carga mínima, Alerta de carga insuficiente, Alerta de pouca carga</t>
-  </si>
-  <si>
-    <t>Teclado não funciona, Teclas não respondem, Teclado não responde corretamente</t>
-  </si>
-  <si>
-    <t>Problema de conexão Wi-Fi, Falha na conexão Wi-Fi, Wi-Fi não funciona</t>
-  </si>
-  <si>
-    <t>Problema de conexão USB, Falha na conexão USB, USB não funciona</t>
-  </si>
-  <si>
-    <t>Dados não são salvos, Medições não são salvas, Problema de armazenamento</t>
-  </si>
-  <si>
-    <t>Equipamento não funciona, Equipamento não inicializa, Equipamento não acende</t>
-  </si>
-  <si>
-    <t>Imagem embaçada, Imagem não nítida, Imagem não focada</t>
-  </si>
-  <si>
-    <t>Imagem termográfica em preto, Termograma sem imagem, Termograma sem leitura</t>
-  </si>
-  <si>
-    <t>Termograma não é salvo, Problema de armazenamento de termograma, Dados termográficos não são armazenados</t>
-  </si>
-  <si>
-    <t>Bateria não carrega, Problema de carregamento, Problema na fonte de energia</t>
-  </si>
-  <si>
-    <t>Problema com a câmera, Câmera não responde, Câmera não grava corretamente</t>
-  </si>
-  <si>
-    <t>Imagem da câmera desfocada, Vídeos da câmera sem qualidade, Vídeos da câmera não nítidos</t>
-  </si>
-  <si>
-    <t>Problema de conexão USB da câmera, Falha na conexão USB da câmera, Câmera não se comunica com o computador</t>
-  </si>
-  <si>
-    <t>Bateria da câmera não dura, Problema de bateria da câmera, Câmera não segura carga</t>
-  </si>
-  <si>
-    <t>Pouca carga na bateria, Bateria descarregando, Bateria fraca</t>
-  </si>
-  <si>
-    <t>Problema de leitura de corrente, Falha na leitura de corrente, Corrente não é lida</t>
-  </si>
-  <si>
-    <t>Falha de conexão</t>
-  </si>
-  <si>
-    <t>Conexão lenta / Instável / Problemas de rede</t>
-  </si>
-  <si>
-    <t>Falha de comunicação</t>
-  </si>
-  <si>
-    <t>Problemas com integração do RDP</t>
-  </si>
-  <si>
-    <t>Falha na integração do RDP com o sistema Mysemeq</t>
-  </si>
-  <si>
-    <t>Falha na geração de ordem de serviço na aplicação</t>
-  </si>
-  <si>
-    <t>Erro de gateway</t>
-  </si>
-  <si>
-    <t>Tempo limite de requisição excedido</t>
-  </si>
-  <si>
-    <t>API fora do ar / indisponível</t>
-  </si>
-  <si>
-    <t>Problemas com endpoints específicos da API</t>
-  </si>
-  <si>
-    <t>Problemas com retorno de dados na API</t>
-  </si>
-  <si>
-    <t>Lentidão no sistema / Baixo desempenho</t>
-  </si>
-  <si>
-    <t>Falha ao carregar a página</t>
-  </si>
-  <si>
-    <t>Falha ao carregar gráfico de pizza</t>
-  </si>
-  <si>
-    <t>Falha ao carregar priorização</t>
-  </si>
-  <si>
-    <t>Interface do sistema inacessível</t>
-  </si>
-  <si>
-    <t>Sistema apresentando lentidão</t>
-  </si>
-  <si>
-    <t>Problemas ao fazer login no aplicativo</t>
-  </si>
-  <si>
-    <t>Problemas com login</t>
-  </si>
-  <si>
-    <t>Problemas com acesso do usuário</t>
-  </si>
-  <si>
-    <t>Dados apresentando informações desatualizadas</t>
-  </si>
-  <si>
-    <t>Portal do sistema apresentando lentidão</t>
-  </si>
-  <si>
-    <t>Falha ao carregar o portal do sistema</t>
-  </si>
-  <si>
-    <t>Falha ao carregar a árvore do sistema</t>
-  </si>
-  <si>
-    <t>Problemas com medidas de tendência do analisador / desalinhadas</t>
-  </si>
-  <si>
-    <t>servidor indisponível, erro 502, gateway ruim, tempo limite excedido</t>
-  </si>
-  <si>
-    <t>tempo limite de solicitação, servidor não responde, tempo limite esgotado</t>
-  </si>
-  <si>
-    <t>api fora do ar, api não está funcionando, api inacessível</t>
-  </si>
-  <si>
-    <t>api endpoint fora do ar, endpoint indisponível, endpoint inacessível</t>
-  </si>
-  <si>
-    <t>api sem resposta, api não responde, sem retorno da api, sem mensagem de erro</t>
-  </si>
-  <si>
-    <t>lentidão na rede, conexão lenta, baixa velocidade de rede</t>
-  </si>
-  <si>
-    <t>site não carrega, página inacessível, erro ao carregar a página</t>
-  </si>
-  <si>
-    <t>gráfico não aparece, gráfico não carrega, erro no gráfico</t>
-  </si>
-  <si>
-    <t>lista de priorização não aparece, erro na lista de priorização</t>
-  </si>
-  <si>
-    <t>sensor sem comunicação bidirecional, sem comunicação de ida e volta</t>
-  </si>
-  <si>
-    <t>gateway não acessível, gateway inacessível, gateway sem comunicação</t>
-  </si>
-  <si>
-    <t>sem conexão com a internet, internet do cliente inacessível, internet do cliente sem comunicação</t>
-  </si>
-  <si>
-    <t>conexão perdida, conexão interrompida, desconectado da rede</t>
-  </si>
-  <si>
-    <t>sensor sem comunicação, sem comunicação com o sensor, sensor offline</t>
-  </si>
-  <si>
-    <t>data e hora do gateway incorretas, gateway com data e hora erradas</t>
-  </si>
-  <si>
-    <t>gateway conectado mas não aparece na interface, sem comunicação do gateway na interface</t>
-  </si>
-  <si>
     <t>coleta periodica offline</t>
   </si>
   <si>
-    <t>Alerta de sobrecarga, Alerta de carga máxima, Alerta de excesso de carga,coletor está com alerta de sobrecarga,coletor está com alerta de overload</t>
-  </si>
-  <si>
-    <t>Falha ao carregar priorização, priorização do mysemeq não carrega</t>
+    <t>coletor, funciona, inicializa, acende, liga</t>
+  </si>
+  <si>
+    <t>Alerta, ruído, ausência, sinal, interrupção, barulho, falha</t>
+  </si>
+  <si>
+    <t>Alerta, overload, sobrecarga, excesso, carga, peso, limite</t>
+  </si>
+  <si>
+    <t>http, 408, timeout</t>
+  </si>
+  <si>
+    <t>api, indisponível</t>
+  </si>
+  <si>
+    <t>não gerou ordem de serviço na aplicação</t>
+  </si>
+  <si>
+    <t>sistema, lento, demora, travamento</t>
+  </si>
+  <si>
+    <t>login, app, falha, erro</t>
+  </si>
+  <si>
+    <t>login, falha, erro</t>
+  </si>
+  <si>
+    <t>erro, dados, desatualizados</t>
+  </si>
+  <si>
+    <t>lentidão, portal, carregando</t>
+  </si>
+  <si>
+    <t>erro, portal, carregamento</t>
+  </si>
+  <si>
+    <t>erro, árvore, carregamento</t>
+  </si>
+  <si>
+    <t>erro, tendência, análise</t>
+  </si>
+  <si>
+    <t>erro, login, acesso, usuário, acesso</t>
+  </si>
+  <si>
+    <t>api, endpoint, inacessível</t>
+  </si>
+  <si>
+    <t>Internet, conexão, cliente</t>
+  </si>
+  <si>
+    <t>Comunicação, sensor</t>
+  </si>
+  <si>
+    <t>GW, gateway, online, data, hora</t>
+  </si>
+  <si>
+    <t>Gateway, interface, conexão</t>
+  </si>
+  <si>
+    <t>GW, gateway, interface, conexão</t>
+  </si>
+  <si>
+    <t>Coletor, travado, emperrado, funciona, liga</t>
+  </si>
+  <si>
+    <t>Alerta, underload, carga, baixa, reduzida, menor</t>
+  </si>
+  <si>
+    <t>Falha, teclado, membrana, funciona, responde</t>
+  </si>
+  <si>
+    <t>Problema, conexão, internet, wifi, fio, rede, wireless</t>
+  </si>
+  <si>
+    <t>Problema, conexão, internet, usb, cabo, fio, conectividade</t>
+  </si>
+  <si>
+    <t>salva, medições, medidas, dados, gravação, registro, armazenamento</t>
+  </si>
+  <si>
+    <t>Equipamento, funciona, inicializa, acende</t>
+  </si>
+  <si>
+    <t>Imagem, embaçada, nítida, focada, nítidez</t>
+  </si>
+  <si>
+    <t>Imagem, termográfica, termograma, preto, leitura, apagado, vídeo, escuro, escura</t>
+  </si>
+  <si>
+    <t>Termograma, salvo, armazenamento, Dados, termográficos, armazenados, salva</t>
+  </si>
+  <si>
+    <t>Bateria, carrega, carregamento, fonte, energia</t>
+  </si>
+  <si>
+    <t>câmera, responde, grava, corretamente, funciona, termográfica, pega, pegar, parou</t>
+  </si>
+  <si>
+    <t>Imagem, câmera, desfocada, Vídeos, qualidade, nítidos, em baçada, embaçado, lavados, lavado</t>
+  </si>
+  <si>
+    <t>conexão, USB, câmera, Falha, conexão, comunica, computador, conecta, conectar</t>
+  </si>
+  <si>
+    <t>Bateria, câmera, dura,  segura, carga</t>
+  </si>
+  <si>
+    <t>Equipamento, funciona, inicializa, acende, liga</t>
+  </si>
+  <si>
+    <t>Imagem, embaçada, nítida, focada, foco, lavado</t>
+  </si>
+  <si>
+    <t>Imagem, termográfica, preto, Termograma, imagem, leitura, apagado, escuro</t>
+  </si>
+  <si>
+    <t>Termograma, salvo, armazenamento, Dados, termográficos, armazenados</t>
+  </si>
+  <si>
+    <t>câmera, responde, grava, corretamente</t>
+  </si>
+  <si>
+    <t>imagem, câmera, desfocada,desfoco, Vídeos, qualidade, nítidos, lavado</t>
+  </si>
+  <si>
+    <t>conexão, USB, câmera, comunica, computador, conecta</t>
+  </si>
+  <si>
+    <t>Bateria, câmera, dura, segura, carga</t>
+  </si>
+  <si>
+    <t>Pouca, carga, bateria, descarregando, fraca, descarrega</t>
+  </si>
+  <si>
+    <t>leitura, corrente, Falha, lida, lê, conversa</t>
+  </si>
+  <si>
+    <t>120, link, down, conexão, interrompida, rede</t>
+  </si>
+  <si>
+    <t>120, perda, pacote, lentidão, velocidade, baixa, conexão, lenta</t>
+  </si>
+  <si>
+    <t>comunicação, conexão, sinal, resposta</t>
+  </si>
+  <si>
+    <t>rdp, integração, erro, integrado</t>
+  </si>
+  <si>
+    <t>rdp, baixa, mysemeq, integração, erro, integrada</t>
+  </si>
+  <si>
+    <t>ordem, serviço, aplicação, gerou, erro</t>
+  </si>
+  <si>
+    <t>http, 502, bad, gateway, erro, rede</t>
+  </si>
+  <si>
+    <t>http, 408, timeout, erro, rede</t>
+  </si>
+  <si>
+    <t>api, indisponível, erro, rede</t>
+  </si>
+  <si>
+    <t>api, endpoint, inacessível, erro, rede</t>
+  </si>
+  <si>
+    <t>api, resposta, erro</t>
+  </si>
+  <si>
+    <t>lentidão, demora, travamento, lento</t>
+  </si>
+  <si>
+    <t>página, carrega, erro</t>
+  </si>
+  <si>
+    <t>gráfico, pizza, carrega, erro</t>
+  </si>
+  <si>
+    <t>priorização, carrega, erro</t>
+  </si>
+  <si>
+    <t>interface, inacessível, erro, rede</t>
+  </si>
+  <si>
+    <t>http, 502, bad, gateway</t>
+  </si>
+  <si>
+    <t>api, endpoint, acessível</t>
+  </si>
+  <si>
+    <t>api, retorna, dados, mensagem</t>
+  </si>
+  <si>
+    <t>lentidão, lento, travando</t>
+  </si>
+  <si>
+    <t>página, carrega</t>
+  </si>
+  <si>
+    <t>gráfico, pizza, carrega</t>
+  </si>
+  <si>
+    <t>priorização, carrega</t>
+  </si>
+  <si>
+    <t>api, resposta</t>
+  </si>
+  <si>
+    <t>lentidão, baixo, desempenho</t>
+  </si>
+  <si>
+    <t>sensor, vínculo, aplicado</t>
+  </si>
+  <si>
+    <t>gateway, interface, entra</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -592,12 +625,6 @@
       <name val="MS Shell Dlg 2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <name val="Segoe UI"/>
       <family val="2"/>
@@ -709,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,13 +750,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <dimension ref="A1:K168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J167" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,7 +1088,7 @@
     <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,9 +1111,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1104,17 +1128,15 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -1129,17 +1151,15 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>116</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -1159,12 +1179,10 @@
       <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
@@ -1179,18 +1197,16 @@
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
@@ -1205,17 +1221,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>8</v>
@@ -1230,17 +1244,15 @@
         <v>16</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -1255,17 +1267,15 @@
         <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
@@ -1280,17 +1290,15 @@
         <v>18</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1305,17 +1313,15 @@
         <v>19</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -1330,17 +1336,15 @@
         <v>22</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>8</v>
@@ -1355,17 +1359,15 @@
         <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -1380,17 +1382,15 @@
         <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" ht="108.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
@@ -1405,17 +1405,15 @@
         <v>25</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" ht="54" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>8</v>
@@ -1430,17 +1428,15 @@
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="3"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" ht="72" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>8</v>
@@ -1455,17 +1451,15 @@
         <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>8</v>
@@ -1480,17 +1474,15 @@
         <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>8</v>
@@ -1505,17 +1497,15 @@
         <v>29</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>8</v>
@@ -1530,17 +1520,15 @@
         <v>30</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>8</v>
@@ -1555,17 +1543,15 @@
         <v>22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>8</v>
@@ -1580,17 +1566,15 @@
         <v>23</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J21" s="3"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>8</v>
@@ -1605,15 +1589,15 @@
         <v>24</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="108" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>8</v>
@@ -1628,15 +1612,15 @@
         <v>25</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>8</v>
@@ -1651,15 +1635,15 @@
         <v>26</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>8</v>
@@ -1674,15 +1658,15 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>8</v>
@@ -1697,15 +1681,15 @@
         <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>8</v>
@@ -1720,15 +1704,15 @@
         <v>29</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>130</v>
+        <v>158</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>8</v>
@@ -1743,15 +1727,15 @@
         <v>30</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>8</v>
@@ -1759,22 +1743,22 @@
       <c r="C29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>8</v>
@@ -1789,13 +1773,13 @@
         <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>113</v>
       </c>
@@ -1812,15 +1796,13 @@
         <v>39</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>113</v>
       </c>
@@ -1837,15 +1819,13 @@
         <v>40</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>113</v>
       </c>
@@ -1862,7 +1842,7 @@
         <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>4</v>
@@ -1870,7 +1850,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>113</v>
       </c>
@@ -1887,7 +1867,7 @@
         <v>40</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -1895,7 +1875,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>113</v>
       </c>
@@ -1912,7 +1892,7 @@
         <v>39</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>4</v>
@@ -1920,7 +1900,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
     </row>
-    <row r="36" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>113</v>
       </c>
@@ -1937,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>4</v>
@@ -1945,7 +1925,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>113</v>
       </c>
@@ -1962,7 +1942,7 @@
         <v>48</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>4</v>
@@ -1970,7 +1950,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>113</v>
       </c>
@@ -1987,7 +1967,7 @@
         <v>48</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>4</v>
@@ -1995,7 +1975,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
     </row>
-    <row r="39" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -2012,7 +1992,7 @@
         <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>4</v>
@@ -2020,7 +2000,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>113</v>
       </c>
@@ -2037,7 +2017,7 @@
         <v>48</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>4</v>
@@ -2045,7 +2025,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>113</v>
       </c>
@@ -2062,7 +2042,7 @@
         <v>48</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>4</v>
@@ -2070,7 +2050,7 @@
       <c r="J41" s="3"/>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>113</v>
       </c>
@@ -2087,7 +2067,7 @@
         <v>48</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>4</v>
@@ -2095,7 +2075,7 @@
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
@@ -2112,7 +2092,7 @@
         <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>4</v>
@@ -2120,7 +2100,7 @@
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
@@ -2137,7 +2117,7 @@
         <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>4</v>
@@ -2145,7 +2125,7 @@
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
     </row>
-    <row r="45" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -2162,7 +2142,7 @@
         <v>48</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>4</v>
@@ -2170,7 +2150,7 @@
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
     </row>
-    <row r="46" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>113</v>
       </c>
@@ -2187,7 +2167,7 @@
         <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>4</v>
@@ -2212,7 +2192,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>4</v>
@@ -2220,7 +2200,7 @@
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -2237,7 +2217,7 @@
         <v>60</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>4</v>
@@ -2245,7 +2225,7 @@
       <c r="J48" s="3"/>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>54</v>
       </c>
@@ -2259,10 +2239,10 @@
         <v>61</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>4</v>
@@ -2270,7 +2250,7 @@
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>54</v>
       </c>
@@ -2284,10 +2264,10 @@
         <v>63</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>4</v>
@@ -2295,7 +2275,7 @@
       <c r="J50" s="3"/>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
@@ -2312,7 +2292,7 @@
         <v>65</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>4</v>
@@ -2337,7 +2317,7 @@
         <v>66</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>4</v>
@@ -2362,7 +2342,7 @@
         <v>67</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>4</v>
@@ -2387,7 +2367,7 @@
         <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>4</v>
@@ -2412,7 +2392,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>4</v>
@@ -2437,7 +2417,7 @@
         <v>70</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>4</v>
@@ -2460,7 +2440,7 @@
         <v>71</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -2483,13 +2463,13 @@
         <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="54" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>54</v>
       </c>
@@ -2506,13 +2486,13 @@
         <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="36" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>54</v>
       </c>
@@ -2529,7 +2509,7 @@
         <v>65</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>4</v>
@@ -2552,7 +2532,7 @@
         <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>4</v>
@@ -2575,7 +2555,7 @@
         <v>67</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>4</v>
@@ -2598,7 +2578,7 @@
         <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>4</v>
@@ -2621,7 +2601,7 @@
         <v>69</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>4</v>
@@ -2644,7 +2624,7 @@
         <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>4</v>
@@ -2667,7 +2647,7 @@
         <v>71</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>4</v>
@@ -2690,13 +2670,13 @@
         <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>54</v>
       </c>
@@ -2713,7 +2693,7 @@
         <v>73</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>4</v>
@@ -2736,7 +2716,7 @@
         <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>4</v>
@@ -2759,7 +2739,7 @@
         <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>4</v>
@@ -2782,13 +2762,13 @@
         <v>77</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>54</v>
       </c>
@@ -2805,13 +2785,13 @@
         <v>79</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>54</v>
       </c>
@@ -2828,7 +2808,7 @@
         <v>79</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>4</v>
@@ -2851,7 +2831,7 @@
         <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>4</v>
@@ -2874,13 +2854,13 @@
         <v>83</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>54</v>
       </c>
@@ -2897,7 +2877,7 @@
         <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>4</v>
@@ -2920,7 +2900,7 @@
         <v>83</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>4</v>
@@ -2943,13 +2923,13 @@
         <v>89</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>54</v>
       </c>
@@ -2966,7 +2946,7 @@
         <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>4</v>
@@ -2989,7 +2969,7 @@
         <v>91</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>4</v>
@@ -3012,13 +2992,13 @@
         <v>89</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>54</v>
       </c>
@@ -3035,7 +3015,7 @@
         <v>90</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>4</v>
@@ -3058,7 +3038,7 @@
         <v>91</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>4</v>
@@ -3081,13 +3061,13 @@
         <v>89</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>54</v>
       </c>
@@ -3104,7 +3084,7 @@
         <v>90</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>4</v>
@@ -3127,13 +3107,13 @@
         <v>91</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>54</v>
       </c>
@@ -3150,7 +3130,7 @@
         <v>95</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>4</v>
@@ -3173,13 +3153,13 @@
         <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>94</v>
       </c>
@@ -3196,13 +3176,13 @@
         <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>94</v>
       </c>
@@ -3219,13 +3199,13 @@
         <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>94</v>
       </c>
@@ -3242,13 +3222,13 @@
         <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>94</v>
       </c>
@@ -3265,7 +3245,7 @@
         <v>65</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>4</v>
@@ -3288,7 +3268,7 @@
         <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>4</v>
@@ -3311,7 +3291,7 @@
         <v>67</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>4</v>
@@ -3334,7 +3314,7 @@
         <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>4</v>
@@ -3357,7 +3337,7 @@
         <v>69</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>4</v>
@@ -3380,7 +3360,7 @@
         <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>4</v>
@@ -3403,7 +3383,7 @@
         <v>71</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>4</v>
@@ -3426,13 +3406,13 @@
         <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>94</v>
       </c>
@@ -3449,13 +3429,13 @@
         <v>73</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -3472,7 +3452,7 @@
         <v>65</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>4</v>
@@ -3495,7 +3475,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>4</v>
@@ -3518,7 +3498,7 @@
         <v>67</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>4</v>
@@ -3541,7 +3521,7 @@
         <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>143</v>
+        <v>171</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>4</v>
@@ -3564,7 +3544,7 @@
         <v>69</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>144</v>
+        <v>172</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>4</v>
@@ -3587,7 +3567,7 @@
         <v>70</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>4</v>
@@ -3610,7 +3590,7 @@
         <v>71</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>4</v>
@@ -3633,13 +3613,13 @@
         <v>72</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>94</v>
       </c>
@@ -3656,7 +3636,7 @@
         <v>73</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>4</v>
@@ -3679,7 +3659,7 @@
         <v>76</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>4</v>
@@ -3702,7 +3682,7 @@
         <v>76</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>4</v>
@@ -3725,13 +3705,13 @@
         <v>77</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>94</v>
       </c>
@@ -3748,13 +3728,13 @@
         <v>79</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G113" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>94</v>
       </c>
@@ -3771,7 +3751,7 @@
         <v>79</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>4</v>
@@ -3794,7 +3774,7 @@
         <v>82</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>4</v>
@@ -3817,13 +3797,13 @@
         <v>83</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>94</v>
       </c>
@@ -3840,7 +3820,7 @@
         <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>4</v>
@@ -3863,7 +3843,7 @@
         <v>83</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>4</v>
@@ -3886,13 +3866,13 @@
         <v>89</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>94</v>
       </c>
@@ -3909,7 +3889,7 @@
         <v>90</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>4</v>
@@ -3932,7 +3912,7 @@
         <v>91</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>4</v>
@@ -3955,13 +3935,13 @@
         <v>89</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>94</v>
       </c>
@@ -3978,7 +3958,7 @@
         <v>90</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G123" s="2" t="s">
         <v>4</v>
@@ -4001,7 +3981,7 @@
         <v>91</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>4</v>
@@ -4024,13 +4004,13 @@
         <v>89</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>94</v>
       </c>
@@ -4047,7 +4027,7 @@
         <v>90</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>4</v>
@@ -4070,13 +4050,13 @@
         <v>91</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="G127" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>94</v>
       </c>
@@ -4093,13 +4073,13 @@
         <v>95</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>8</v>
       </c>
@@ -4116,7 +4096,7 @@
         <v>65</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>4</v>
@@ -4124,7 +4104,7 @@
       <c r="J129" s="3"/>
       <c r="K129" s="4"/>
     </row>
-    <row r="130" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>8</v>
       </c>
@@ -4141,7 +4121,7 @@
         <v>66</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>4</v>
@@ -4149,7 +4129,7 @@
       <c r="J130" s="3"/>
       <c r="K130" s="4"/>
     </row>
-    <row r="131" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>8</v>
       </c>
@@ -4166,7 +4146,7 @@
         <v>67</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>4</v>
@@ -4174,7 +4154,7 @@
       <c r="J131" s="3"/>
       <c r="K131" s="4"/>
     </row>
-    <row r="132" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>8</v>
       </c>
@@ -4191,7 +4171,7 @@
         <v>68</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>4</v>
@@ -4199,7 +4179,7 @@
       <c r="J132" s="3"/>
       <c r="K132" s="4"/>
     </row>
-    <row r="133" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
@@ -4216,7 +4196,7 @@
         <v>69</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G133" s="2" t="s">
         <v>4</v>
@@ -4224,7 +4204,7 @@
       <c r="J133" s="3"/>
       <c r="K133" s="4"/>
     </row>
-    <row r="134" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
@@ -4241,7 +4221,7 @@
         <v>70</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>4</v>
@@ -4249,7 +4229,7 @@
       <c r="J134" s="3"/>
       <c r="K134" s="4"/>
     </row>
-    <row r="135" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +4246,7 @@
         <v>71</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>4</v>
@@ -4274,7 +4254,7 @@
       <c r="J135" s="3"/>
       <c r="K135" s="4"/>
     </row>
-    <row r="136" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>8</v>
       </c>
@@ -4291,7 +4271,7 @@
         <v>72</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>4</v>
@@ -4299,7 +4279,7 @@
       <c r="J136" s="3"/>
       <c r="K136" s="4"/>
     </row>
-    <row r="137" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -4316,7 +4296,7 @@
         <v>73</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>4</v>
@@ -4324,7 +4304,7 @@
       <c r="J137" s="3"/>
       <c r="K137" s="4"/>
     </row>
-    <row r="138" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
@@ -4341,7 +4321,7 @@
         <v>65</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>4</v>
@@ -4349,7 +4329,7 @@
       <c r="J138" s="3"/>
       <c r="K138" s="4"/>
     </row>
-    <row r="139" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>8</v>
       </c>
@@ -4366,7 +4346,7 @@
         <v>66</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>4</v>
@@ -4374,7 +4354,7 @@
       <c r="J139" s="3"/>
       <c r="K139" s="4"/>
     </row>
-    <row r="140" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
@@ -4391,7 +4371,7 @@
         <v>67</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>4</v>
@@ -4399,7 +4379,7 @@
       <c r="J140" s="3"/>
       <c r="K140" s="4"/>
     </row>
-    <row r="141" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
@@ -4416,7 +4396,7 @@
         <v>68</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>4</v>
@@ -4424,7 +4404,7 @@
       <c r="J141" s="3"/>
       <c r="K141" s="4"/>
     </row>
-    <row r="142" spans="1:11" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>8</v>
       </c>
@@ -4441,7 +4421,7 @@
         <v>69</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G142" s="2" t="s">
         <v>4</v>
@@ -4449,7 +4429,7 @@
       <c r="J142" s="3"/>
       <c r="K142" s="4"/>
     </row>
-    <row r="143" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>8</v>
       </c>
@@ -4466,7 +4446,7 @@
         <v>70</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>4</v>
@@ -4474,7 +4454,7 @@
       <c r="J143" s="3"/>
       <c r="K143" s="4"/>
     </row>
-    <row r="144" spans="1:11" ht="54.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>8</v>
       </c>
@@ -4491,7 +4471,7 @@
         <v>71</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G144" s="2" t="s">
         <v>4</v>
@@ -4499,7 +4479,7 @@
       <c r="J144" s="3"/>
       <c r="K144" s="4"/>
     </row>
-    <row r="145" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>8</v>
       </c>
@@ -4516,13 +4496,13 @@
         <v>72</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>8</v>
       </c>
@@ -4539,13 +4519,13 @@
         <v>73</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G146" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
@@ -4562,13 +4542,13 @@
         <v>65</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
@@ -4585,13 +4565,13 @@
         <v>66</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -4608,13 +4588,13 @@
         <v>67</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -4631,13 +4611,13 @@
         <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="G150" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
@@ -4654,13 +4634,13 @@
         <v>69</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
@@ -4677,13 +4657,13 @@
         <v>70</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="G152" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -4700,13 +4680,13 @@
         <v>71</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G153" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>8</v>
       </c>
@@ -4723,13 +4703,13 @@
         <v>72</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G154" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>8</v>
       </c>
@@ -4746,13 +4726,13 @@
         <v>73</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="54" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>8</v>
       </c>
@@ -4769,13 +4749,13 @@
         <v>103</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -4792,13 +4772,13 @@
         <v>106</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -4815,13 +4795,13 @@
         <v>107</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
@@ -4838,13 +4818,13 @@
         <v>108</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="G159" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>8</v>
       </c>
@@ -4861,13 +4841,13 @@
         <v>109</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="G160" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>8</v>
       </c>
@@ -4884,13 +4864,13 @@
         <v>110</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="G161" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>8</v>
       </c>
@@ -4907,13 +4887,13 @@
         <v>111</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G162" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>8</v>
       </c>
@@ -4930,13 +4910,13 @@
         <v>106</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>8</v>
       </c>
@@ -4953,13 +4933,13 @@
         <v>107</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="G164" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>8</v>
       </c>
@@ -4976,13 +4956,13 @@
         <v>108</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="G165" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>8</v>
       </c>
@@ -4999,13 +4979,13 @@
         <v>109</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="G166" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>8</v>
       </c>
@@ -5022,13 +5002,13 @@
         <v>110</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="G167" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="36" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
@@ -5045,7 +5025,7 @@
         <v>111</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G168" s="2" t="s">
         <v>4</v>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EEB3C-8B09-4014-B8B9-CEAC0BA2B94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86204CC5-37D8-4257-8085-71CDBD23BA94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -2130,7 +2130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2144,8 +2144,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2463,10 +2462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47E221B1-E974-48EE-8D2F-4D47A5EBE7F7}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:AS171"/>
+  <dimension ref="A1:K171"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2483,7 +2482,7 @@
     <col min="14" max="14" width="38.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2508,44 +2507,8 @@
       <c r="I1" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="5"/>
-      <c r="AK1" s="5"/>
-      <c r="AL1" s="5"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-    </row>
-    <row r="2" spans="1:45" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" ht="269.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>114</v>
       </c>
@@ -2570,44 +2533,8 @@
       <c r="I2" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-    </row>
-    <row r="3" spans="1:45" ht="281.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" ht="281.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>114</v>
       </c>
@@ -2632,44 +2559,8 @@
       <c r="I3" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5"/>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="5"/>
-      <c r="AI3" s="5"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="5"/>
-      <c r="AL3" s="5"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-    </row>
-    <row r="4" spans="1:45" ht="246" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" ht="246" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>114</v>
       </c>
@@ -2694,44 +2585,8 @@
       <c r="I4" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-    </row>
-    <row r="5" spans="1:45" ht="288" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>114</v>
       </c>
@@ -2756,44 +2611,8 @@
       <c r="I5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="5"/>
-      <c r="AL5" s="5"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-    </row>
-    <row r="6" spans="1:45" ht="306" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="306" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>114</v>
       </c>
@@ -2818,44 +2637,8 @@
       <c r="I6" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
-      <c r="AH6" s="5"/>
-      <c r="AI6" s="5"/>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="5"/>
-      <c r="AL6" s="5"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-    </row>
-    <row r="7" spans="1:45" ht="288" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>114</v>
       </c>
@@ -2880,44 +2663,8 @@
       <c r="I7" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-    </row>
-    <row r="8" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -2942,44 +2689,8 @@
       <c r="I8" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
-      <c r="AB8" s="5"/>
-      <c r="AC8" s="5"/>
-      <c r="AD8" s="5"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
-      <c r="AG8" s="5"/>
-      <c r="AH8" s="5"/>
-      <c r="AI8" s="5"/>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="5"/>
-      <c r="AL8" s="5"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-    </row>
-    <row r="9" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
@@ -3004,44 +2715,8 @@
       <c r="I9" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
-      <c r="AB9" s="5"/>
-      <c r="AC9" s="5"/>
-      <c r="AD9" s="5"/>
-      <c r="AE9" s="5"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="5"/>
-      <c r="AH9" s="5"/>
-      <c r="AI9" s="5"/>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
-    </row>
-    <row r="10" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -3066,44 +2741,8 @@
       <c r="I10" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-    </row>
-    <row r="11" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
@@ -3128,44 +2767,8 @@
       <c r="I11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5"/>
-      <c r="AD11" s="5"/>
-      <c r="AE11" s="5"/>
-      <c r="AF11" s="5"/>
-      <c r="AG11" s="5"/>
-      <c r="AH11" s="5"/>
-      <c r="AI11" s="5"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
-      <c r="AP11" s="5"/>
-      <c r="AQ11" s="5"/>
-      <c r="AR11" s="5"/>
-      <c r="AS11" s="5"/>
-    </row>
-    <row r="12" spans="1:45" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -3190,44 +2793,8 @@
       <c r="I12" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5"/>
-      <c r="AD12" s="5"/>
-      <c r="AE12" s="5"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="5"/>
-      <c r="AH12" s="5"/>
-      <c r="AI12" s="5"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
-      <c r="AP12" s="5"/>
-      <c r="AQ12" s="5"/>
-      <c r="AR12" s="5"/>
-      <c r="AS12" s="5"/>
-    </row>
-    <row r="13" spans="1:45" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>114</v>
       </c>
@@ -3252,44 +2819,8 @@
       <c r="I13" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="5"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
-      <c r="AP13" s="5"/>
-      <c r="AQ13" s="5"/>
-      <c r="AR13" s="5"/>
-      <c r="AS13" s="5"/>
-    </row>
-    <row r="14" spans="1:45" ht="288" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
@@ -3314,44 +2845,8 @@
       <c r="I14" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="5"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="5"/>
-      <c r="AI14" s="5"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
-      <c r="AP14" s="5"/>
-      <c r="AQ14" s="5"/>
-      <c r="AR14" s="5"/>
-      <c r="AS14" s="5"/>
-    </row>
-    <row r="15" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
@@ -3376,44 +2871,8 @@
       <c r="I15" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
-      <c r="AE15" s="5"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="5"/>
-      <c r="AI15" s="5"/>
-      <c r="AJ15" s="5"/>
-      <c r="AK15" s="5"/>
-      <c r="AL15" s="5"/>
-      <c r="AM15" s="5"/>
-      <c r="AN15" s="5"/>
-      <c r="AO15" s="5"/>
-      <c r="AP15" s="5"/>
-      <c r="AQ15" s="5"/>
-      <c r="AR15" s="5"/>
-      <c r="AS15" s="5"/>
-    </row>
-    <row r="16" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
@@ -3438,44 +2897,8 @@
       <c r="I16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="5"/>
-      <c r="AJ16" s="5"/>
-      <c r="AK16" s="5"/>
-      <c r="AL16" s="5"/>
-      <c r="AM16" s="5"/>
-      <c r="AN16" s="5"/>
-      <c r="AO16" s="5"/>
-      <c r="AP16" s="5"/>
-      <c r="AQ16" s="5"/>
-      <c r="AR16" s="5"/>
-      <c r="AS16" s="5"/>
-    </row>
-    <row r="17" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>114</v>
       </c>
@@ -3500,44 +2923,8 @@
       <c r="I17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5"/>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5"/>
-      <c r="AD17" s="5"/>
-      <c r="AE17" s="5"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="5"/>
-      <c r="AH17" s="5"/>
-      <c r="AI17" s="5"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="5"/>
-      <c r="AL17" s="5"/>
-      <c r="AM17" s="5"/>
-      <c r="AN17" s="5"/>
-      <c r="AO17" s="5"/>
-      <c r="AP17" s="5"/>
-      <c r="AQ17" s="5"/>
-      <c r="AR17" s="5"/>
-      <c r="AS17" s="5"/>
-    </row>
-    <row r="18" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>114</v>
       </c>
@@ -3562,44 +2949,8 @@
       <c r="I18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-    </row>
-    <row r="19" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>114</v>
       </c>
@@ -3624,44 +2975,8 @@
       <c r="I19" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="5"/>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="5"/>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5"/>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5"/>
-      <c r="AD19" s="5"/>
-      <c r="AE19" s="5"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="5"/>
-      <c r="AH19" s="5"/>
-      <c r="AI19" s="5"/>
-      <c r="AJ19" s="5"/>
-      <c r="AK19" s="5"/>
-      <c r="AL19" s="5"/>
-      <c r="AM19" s="5"/>
-      <c r="AN19" s="5"/>
-      <c r="AO19" s="5"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-    </row>
-    <row r="20" spans="1:45" ht="324" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" ht="324" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
@@ -3686,44 +3001,8 @@
       <c r="I20" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-    </row>
-    <row r="21" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>114</v>
       </c>
@@ -3748,44 +3027,8 @@
       <c r="I21" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="5"/>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="5"/>
-      <c r="AD21" s="5"/>
-      <c r="AE21" s="5"/>
-      <c r="AF21" s="5"/>
-      <c r="AG21" s="5"/>
-      <c r="AH21" s="5"/>
-      <c r="AI21" s="5"/>
-      <c r="AJ21" s="5"/>
-      <c r="AK21" s="5"/>
-      <c r="AL21" s="5"/>
-      <c r="AM21" s="5"/>
-      <c r="AN21" s="5"/>
-      <c r="AO21" s="5"/>
-      <c r="AP21" s="5"/>
-      <c r="AQ21" s="5"/>
-      <c r="AR21" s="5"/>
-      <c r="AS21" s="5"/>
-    </row>
-    <row r="22" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>114</v>
       </c>
@@ -3810,44 +3053,8 @@
       <c r="I22" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-    </row>
-    <row r="23" spans="1:45" ht="288" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" ht="288" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>114</v>
       </c>
@@ -3872,44 +3079,8 @@
       <c r="I23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-    </row>
-    <row r="24" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>114</v>
       </c>
@@ -3934,44 +3105,8 @@
       <c r="I24" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-    </row>
-    <row r="25" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>114</v>
       </c>
@@ -3996,44 +3131,8 @@
       <c r="I25" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="5"/>
-      <c r="R25" s="5"/>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="5"/>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="5"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="5"/>
-      <c r="AD25" s="5"/>
-      <c r="AE25" s="5"/>
-      <c r="AF25" s="5"/>
-      <c r="AG25" s="5"/>
-      <c r="AH25" s="5"/>
-      <c r="AI25" s="5"/>
-      <c r="AJ25" s="5"/>
-      <c r="AK25" s="5"/>
-      <c r="AL25" s="5"/>
-      <c r="AM25" s="5"/>
-      <c r="AN25" s="5"/>
-      <c r="AO25" s="5"/>
-      <c r="AP25" s="5"/>
-      <c r="AQ25" s="5"/>
-      <c r="AR25" s="5"/>
-      <c r="AS25" s="5"/>
-    </row>
-    <row r="26" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>114</v>
       </c>
@@ -4058,44 +3157,8 @@
       <c r="I26" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-    </row>
-    <row r="27" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
@@ -4120,44 +3183,8 @@
       <c r="I27" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-    </row>
-    <row r="28" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="162" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>114</v>
       </c>
@@ -4182,44 +3209,8 @@
       <c r="I28" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="5"/>
-      <c r="AD28" s="5"/>
-      <c r="AE28" s="5"/>
-      <c r="AF28" s="5"/>
-      <c r="AG28" s="5"/>
-      <c r="AH28" s="5"/>
-      <c r="AI28" s="5"/>
-      <c r="AJ28" s="5"/>
-      <c r="AK28" s="5"/>
-      <c r="AL28" s="5"/>
-      <c r="AM28" s="5"/>
-      <c r="AN28" s="5"/>
-      <c r="AO28" s="5"/>
-      <c r="AP28" s="5"/>
-      <c r="AQ28" s="5"/>
-      <c r="AR28" s="5"/>
-      <c r="AS28" s="5"/>
-    </row>
-    <row r="29" spans="1:45" ht="324" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="324" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>114</v>
       </c>
@@ -4244,44 +3235,8 @@
       <c r="I29" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-    </row>
-    <row r="30" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>114</v>
       </c>
@@ -4306,44 +3261,8 @@
       <c r="I30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-    </row>
-    <row r="31" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>114</v>
       </c>
@@ -4368,44 +3287,8 @@
       <c r="I31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="5"/>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="5"/>
-      <c r="AD31" s="5"/>
-      <c r="AE31" s="5"/>
-      <c r="AF31" s="5"/>
-      <c r="AG31" s="5"/>
-      <c r="AH31" s="5"/>
-      <c r="AI31" s="5"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-    </row>
-    <row r="32" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>112</v>
       </c>
@@ -4430,44 +3313,8 @@
       <c r="I32" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-    </row>
-    <row r="33" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>112</v>
       </c>
@@ -4492,44 +3339,8 @@
       <c r="I33" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-    </row>
-    <row r="34" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>112</v>
       </c>
@@ -4554,44 +3365,10 @@
       <c r="I34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-    </row>
-    <row r="35" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>112</v>
       </c>
@@ -4616,44 +3393,10 @@
       <c r="I35" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="5"/>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="5"/>
-      <c r="AD35" s="5"/>
-      <c r="AE35" s="5"/>
-      <c r="AF35" s="5"/>
-      <c r="AG35" s="5"/>
-      <c r="AH35" s="5"/>
-      <c r="AI35" s="5"/>
-      <c r="AJ35" s="5"/>
-      <c r="AK35" s="5"/>
-      <c r="AL35" s="5"/>
-      <c r="AM35" s="5"/>
-      <c r="AN35" s="5"/>
-      <c r="AO35" s="5"/>
-      <c r="AP35" s="5"/>
-      <c r="AQ35" s="5"/>
-      <c r="AR35" s="5"/>
-      <c r="AS35" s="5"/>
-    </row>
-    <row r="36" spans="1:45" ht="396" x14ac:dyDescent="0.25">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="396" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>112</v>
       </c>
@@ -4678,44 +3421,10 @@
       <c r="I36" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="5"/>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="5"/>
-      <c r="AD36" s="5"/>
-      <c r="AE36" s="5"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="5"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="5"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="5"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="5"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="5"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="5"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="5"/>
-    </row>
-    <row r="37" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
@@ -4740,44 +3449,10 @@
       <c r="I37" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="5"/>
-      <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="5"/>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="5"/>
-      <c r="AD37" s="5"/>
-      <c r="AE37" s="5"/>
-      <c r="AF37" s="5"/>
-      <c r="AG37" s="5"/>
-      <c r="AH37" s="5"/>
-      <c r="AI37" s="5"/>
-      <c r="AJ37" s="5"/>
-      <c r="AK37" s="5"/>
-      <c r="AL37" s="5"/>
-      <c r="AM37" s="5"/>
-      <c r="AN37" s="5"/>
-      <c r="AO37" s="5"/>
-      <c r="AP37" s="5"/>
-      <c r="AQ37" s="5"/>
-      <c r="AR37" s="5"/>
-      <c r="AS37" s="5"/>
-    </row>
-    <row r="38" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>112</v>
       </c>
@@ -4802,44 +3477,10 @@
       <c r="I38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="5"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="5"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="5"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="5"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="5"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="5"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="5"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="5"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="5"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="5"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="5"/>
-    </row>
-    <row r="39" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>112</v>
       </c>
@@ -4864,44 +3505,10 @@
       <c r="I39" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="5"/>
-      <c r="AA39" s="5"/>
-      <c r="AB39" s="5"/>
-      <c r="AC39" s="5"/>
-      <c r="AD39" s="5"/>
-      <c r="AE39" s="5"/>
-      <c r="AF39" s="5"/>
-      <c r="AG39" s="5"/>
-      <c r="AH39" s="5"/>
-      <c r="AI39" s="5"/>
-      <c r="AJ39" s="5"/>
-      <c r="AK39" s="5"/>
-      <c r="AL39" s="5"/>
-      <c r="AM39" s="5"/>
-      <c r="AN39" s="5"/>
-      <c r="AO39" s="5"/>
-      <c r="AP39" s="5"/>
-      <c r="AQ39" s="5"/>
-      <c r="AR39" s="5"/>
-      <c r="AS39" s="5"/>
-    </row>
-    <row r="40" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>112</v>
       </c>
@@ -4926,44 +3533,10 @@
       <c r="I40" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="5"/>
-      <c r="AA40" s="5"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="5"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="5"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="5"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="5"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="5"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="5"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="5"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="5"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="5"/>
-    </row>
-    <row r="41" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -4988,44 +3561,10 @@
       <c r="I41" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="5"/>
-      <c r="AA41" s="5"/>
-      <c r="AB41" s="5"/>
-      <c r="AC41" s="5"/>
-      <c r="AD41" s="5"/>
-      <c r="AE41" s="5"/>
-      <c r="AF41" s="5"/>
-      <c r="AG41" s="5"/>
-      <c r="AH41" s="5"/>
-      <c r="AI41" s="5"/>
-      <c r="AJ41" s="5"/>
-      <c r="AK41" s="5"/>
-      <c r="AL41" s="5"/>
-      <c r="AM41" s="5"/>
-      <c r="AN41" s="5"/>
-      <c r="AO41" s="5"/>
-      <c r="AP41" s="5"/>
-      <c r="AQ41" s="5"/>
-      <c r="AR41" s="5"/>
-      <c r="AS41" s="5"/>
-    </row>
-    <row r="42" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>112</v>
       </c>
@@ -5050,44 +3589,10 @@
       <c r="I42" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="5"/>
-      <c r="AA42" s="5"/>
-      <c r="AB42" s="5"/>
-      <c r="AC42" s="5"/>
-      <c r="AD42" s="5"/>
-      <c r="AE42" s="5"/>
-      <c r="AF42" s="5"/>
-      <c r="AG42" s="5"/>
-      <c r="AH42" s="5"/>
-      <c r="AI42" s="5"/>
-      <c r="AJ42" s="5"/>
-      <c r="AK42" s="5"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="5"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="5"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="5"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="5"/>
-    </row>
-    <row r="43" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>112</v>
       </c>
@@ -5112,44 +3617,10 @@
       <c r="I43" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-      <c r="Y43" s="5"/>
-      <c r="Z43" s="5"/>
-      <c r="AA43" s="5"/>
-      <c r="AB43" s="5"/>
-      <c r="AC43" s="5"/>
-      <c r="AD43" s="5"/>
-      <c r="AE43" s="5"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="5"/>
-      <c r="AH43" s="5"/>
-      <c r="AI43" s="5"/>
-      <c r="AJ43" s="5"/>
-      <c r="AK43" s="5"/>
-      <c r="AL43" s="5"/>
-      <c r="AM43" s="5"/>
-      <c r="AN43" s="5"/>
-      <c r="AO43" s="5"/>
-      <c r="AP43" s="5"/>
-      <c r="AQ43" s="5"/>
-      <c r="AR43" s="5"/>
-      <c r="AS43" s="5"/>
-    </row>
-    <row r="44" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>112</v>
       </c>
@@ -5174,44 +3645,10 @@
       <c r="I44" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
-      <c r="AB44" s="5"/>
-      <c r="AC44" s="5"/>
-      <c r="AD44" s="5"/>
-      <c r="AE44" s="5"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="5"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="5"/>
-      <c r="AJ44" s="5"/>
-      <c r="AK44" s="5"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="5"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="5"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="5"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="5"/>
-    </row>
-    <row r="45" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>112</v>
       </c>
@@ -5236,44 +3673,10 @@
       <c r="I45" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-      <c r="Y45" s="5"/>
-      <c r="Z45" s="5"/>
-      <c r="AA45" s="5"/>
-      <c r="AB45" s="5"/>
-      <c r="AC45" s="5"/>
-      <c r="AD45" s="5"/>
-      <c r="AE45" s="5"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5"/>
-      <c r="AH45" s="5"/>
-      <c r="AI45" s="5"/>
-      <c r="AJ45" s="5"/>
-      <c r="AK45" s="5"/>
-      <c r="AL45" s="5"/>
-      <c r="AM45" s="5"/>
-      <c r="AN45" s="5"/>
-      <c r="AO45" s="5"/>
-      <c r="AP45" s="5"/>
-      <c r="AQ45" s="5"/>
-      <c r="AR45" s="5"/>
-      <c r="AS45" s="5"/>
-    </row>
-    <row r="46" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -5298,44 +3701,10 @@
       <c r="I46" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="5"/>
-      <c r="Z46" s="5"/>
-      <c r="AA46" s="5"/>
-      <c r="AB46" s="5"/>
-      <c r="AC46" s="5"/>
-      <c r="AD46" s="5"/>
-      <c r="AE46" s="5"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5"/>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
-      <c r="AJ46" s="5"/>
-      <c r="AK46" s="5"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="5"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="5"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="5"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="5"/>
-    </row>
-    <row r="47" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+    </row>
+    <row r="47" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>112</v>
       </c>
@@ -5360,44 +3729,10 @@
       <c r="I47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-      <c r="Y47" s="5"/>
-      <c r="Z47" s="5"/>
-      <c r="AA47" s="5"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="5"/>
-      <c r="AD47" s="5"/>
-      <c r="AE47" s="5"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
-      <c r="AJ47" s="5"/>
-      <c r="AK47" s="5"/>
-      <c r="AL47" s="5"/>
-      <c r="AM47" s="5"/>
-      <c r="AN47" s="5"/>
-      <c r="AO47" s="5"/>
-      <c r="AP47" s="5"/>
-      <c r="AQ47" s="5"/>
-      <c r="AR47" s="5"/>
-      <c r="AS47" s="5"/>
-    </row>
-    <row r="48" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+    </row>
+    <row r="48" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>53</v>
       </c>
@@ -5422,44 +3757,10 @@
       <c r="I48" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="5"/>
-      <c r="Z48" s="5"/>
-      <c r="AA48" s="5"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="5"/>
-      <c r="AD48" s="5"/>
-      <c r="AE48" s="5"/>
-      <c r="AF48" s="5"/>
-      <c r="AG48" s="5"/>
-      <c r="AH48" s="5"/>
-      <c r="AI48" s="5"/>
-      <c r="AJ48" s="5"/>
-      <c r="AK48" s="5"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="5"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="5"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="5"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="5"/>
-    </row>
-    <row r="49" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>53</v>
       </c>
@@ -5484,44 +3785,10 @@
       <c r="I49" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-      <c r="Y49" s="5"/>
-      <c r="Z49" s="5"/>
-      <c r="AA49" s="5"/>
-      <c r="AB49" s="5"/>
-      <c r="AC49" s="5"/>
-      <c r="AD49" s="5"/>
-      <c r="AE49" s="5"/>
-      <c r="AF49" s="5"/>
-      <c r="AG49" s="5"/>
-      <c r="AH49" s="5"/>
-      <c r="AI49" s="5"/>
-      <c r="AJ49" s="5"/>
-      <c r="AK49" s="5"/>
-      <c r="AL49" s="5"/>
-      <c r="AM49" s="5"/>
-      <c r="AN49" s="5"/>
-      <c r="AO49" s="5"/>
-      <c r="AP49" s="5"/>
-      <c r="AQ49" s="5"/>
-      <c r="AR49" s="5"/>
-      <c r="AS49" s="5"/>
-    </row>
-    <row r="50" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+    </row>
+    <row r="50" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>53</v>
       </c>
@@ -5546,44 +3813,10 @@
       <c r="I50" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="5"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="5"/>
-      <c r="Z50" s="5"/>
-      <c r="AA50" s="5"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="5"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="5"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="5"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="5"/>
-      <c r="AJ50" s="5"/>
-      <c r="AK50" s="5"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="5"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="5"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="5"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="5"/>
-    </row>
-    <row r="51" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+    </row>
+    <row r="51" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>53</v>
       </c>
@@ -5608,44 +3841,10 @@
       <c r="I51" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5"/>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-      <c r="Y51" s="5"/>
-      <c r="Z51" s="5"/>
-      <c r="AA51" s="5"/>
-      <c r="AB51" s="5"/>
-      <c r="AC51" s="5"/>
-      <c r="AD51" s="5"/>
-      <c r="AE51" s="5"/>
-      <c r="AF51" s="5"/>
-      <c r="AG51" s="5"/>
-      <c r="AH51" s="5"/>
-      <c r="AI51" s="5"/>
-      <c r="AJ51" s="5"/>
-      <c r="AK51" s="5"/>
-      <c r="AL51" s="5"/>
-      <c r="AM51" s="5"/>
-      <c r="AN51" s="5"/>
-      <c r="AO51" s="5"/>
-      <c r="AP51" s="5"/>
-      <c r="AQ51" s="5"/>
-      <c r="AR51" s="5"/>
-      <c r="AS51" s="5"/>
-    </row>
-    <row r="52" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>53</v>
       </c>
@@ -5670,44 +3869,10 @@
       <c r="I52" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="5"/>
-      <c r="Z52" s="5"/>
-      <c r="AA52" s="5"/>
-      <c r="AB52" s="5"/>
-      <c r="AC52" s="5"/>
-      <c r="AD52" s="5"/>
-      <c r="AE52" s="5"/>
-      <c r="AF52" s="5"/>
-      <c r="AG52" s="5"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="5"/>
-      <c r="AJ52" s="5"/>
-      <c r="AK52" s="5"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="5"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="5"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="5"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="5"/>
-    </row>
-    <row r="53" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+    </row>
+    <row r="53" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>53</v>
       </c>
@@ -5732,44 +3897,10 @@
       <c r="I53" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="5"/>
-      <c r="R53" s="5"/>
-      <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-      <c r="Y53" s="5"/>
-      <c r="Z53" s="5"/>
-      <c r="AA53" s="5"/>
-      <c r="AB53" s="5"/>
-      <c r="AC53" s="5"/>
-      <c r="AD53" s="5"/>
-      <c r="AE53" s="5"/>
-      <c r="AF53" s="5"/>
-      <c r="AG53" s="5"/>
-      <c r="AH53" s="5"/>
-      <c r="AI53" s="5"/>
-      <c r="AJ53" s="5"/>
-      <c r="AK53" s="5"/>
-      <c r="AL53" s="5"/>
-      <c r="AM53" s="5"/>
-      <c r="AN53" s="5"/>
-      <c r="AO53" s="5"/>
-      <c r="AP53" s="5"/>
-      <c r="AQ53" s="5"/>
-      <c r="AR53" s="5"/>
-      <c r="AS53" s="5"/>
-    </row>
-    <row r="54" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+    </row>
+    <row r="54" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>53</v>
       </c>
@@ -5794,44 +3925,10 @@
       <c r="I54" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="5"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="5"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="5"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="5"/>
-      <c r="Z54" s="5"/>
-      <c r="AA54" s="5"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="5"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="5"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
-      <c r="AJ54" s="5"/>
-      <c r="AK54" s="5"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="5"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="5"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="5"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="5"/>
-    </row>
-    <row r="55" spans="1:45" ht="144" x14ac:dyDescent="0.25">
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+    </row>
+    <row r="55" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>53</v>
       </c>
@@ -5856,44 +3953,10 @@
       <c r="I55" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
-      <c r="Y55" s="5"/>
-      <c r="Z55" s="5"/>
-      <c r="AA55" s="5"/>
-      <c r="AB55" s="5"/>
-      <c r="AC55" s="5"/>
-      <c r="AD55" s="5"/>
-      <c r="AE55" s="5"/>
-      <c r="AF55" s="5"/>
-      <c r="AG55" s="5"/>
-      <c r="AH55" s="5"/>
-      <c r="AI55" s="5"/>
-      <c r="AJ55" s="5"/>
-      <c r="AK55" s="5"/>
-      <c r="AL55" s="5"/>
-      <c r="AM55" s="5"/>
-      <c r="AN55" s="5"/>
-      <c r="AO55" s="5"/>
-      <c r="AP55" s="5"/>
-      <c r="AQ55" s="5"/>
-      <c r="AR55" s="5"/>
-      <c r="AS55" s="5"/>
-    </row>
-    <row r="56" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+    </row>
+    <row r="56" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
@@ -5918,44 +3981,10 @@
       <c r="I56" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="5"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="5"/>
-      <c r="Z56" s="5"/>
-      <c r="AA56" s="5"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="5"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="5"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="5"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="5"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="5"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="5"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="5"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="5"/>
-      <c r="AR56" s="5"/>
-      <c r="AS56" s="5"/>
-    </row>
-    <row r="57" spans="1:45" ht="144" x14ac:dyDescent="0.25">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+    </row>
+    <row r="57" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>53</v>
       </c>
@@ -5980,44 +4009,10 @@
       <c r="I57" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
-      <c r="AB57" s="5"/>
-      <c r="AC57" s="5"/>
-      <c r="AD57" s="5"/>
-      <c r="AE57" s="5"/>
-      <c r="AF57" s="5"/>
-      <c r="AG57" s="5"/>
-      <c r="AH57" s="5"/>
-      <c r="AI57" s="5"/>
-      <c r="AJ57" s="5"/>
-      <c r="AK57" s="5"/>
-      <c r="AL57" s="5"/>
-      <c r="AM57" s="5"/>
-      <c r="AN57" s="5"/>
-      <c r="AO57" s="5"/>
-      <c r="AP57" s="5"/>
-      <c r="AQ57" s="5"/>
-      <c r="AR57" s="5"/>
-      <c r="AS57" s="5"/>
-    </row>
-    <row r="58" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+    </row>
+    <row r="58" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>53</v>
       </c>
@@ -6042,44 +4037,8 @@
       <c r="I58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="5"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="5"/>
-      <c r="Z58" s="5"/>
-      <c r="AA58" s="5"/>
-      <c r="AB58" s="5"/>
-      <c r="AC58" s="5"/>
-      <c r="AD58" s="5"/>
-      <c r="AE58" s="5"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5"/>
-      <c r="AI58" s="5"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="5"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="5"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="5"/>
-      <c r="AP58" s="5"/>
-      <c r="AQ58" s="5"/>
-      <c r="AR58" s="5"/>
-      <c r="AS58" s="5"/>
-    </row>
-    <row r="59" spans="1:45" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>53</v>
       </c>
@@ -6105,7 +4064,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="144" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>53</v>
       </c>
@@ -6131,7 +4090,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="144" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>53</v>
       </c>
@@ -6157,7 +4116,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="62" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>53</v>
       </c>
@@ -6183,7 +4142,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:45" ht="162" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>53</v>
       </c>
@@ -6209,7 +4168,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="64" spans="1:45" ht="144" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>53</v>
       </c>
@@ -7899,7 +5858,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>93</v>
       </c>
@@ -7925,7 +5884,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>93</v>
       </c>
@@ -7950,13 +5909,8 @@
       <c r="I130" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
-      <c r="L130" s="5"/>
-      <c r="M130" s="5"/>
-      <c r="N130" s="5"/>
-    </row>
-    <row r="131" spans="1:14" ht="216" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:11" ht="216" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>93</v>
       </c>
@@ -7981,13 +5935,8 @@
       <c r="I131" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
-      <c r="L131" s="5"/>
-      <c r="M131" s="5"/>
-      <c r="N131" s="5"/>
-    </row>
-    <row r="132" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>8</v>
       </c>
@@ -8012,13 +5961,10 @@
       <c r="I132" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J132" s="6"/>
-      <c r="K132" s="6"/>
-      <c r="L132" s="5"/>
-      <c r="M132" s="5"/>
-      <c r="N132" s="5"/>
-    </row>
-    <row r="133" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+      <c r="J132" s="5"/>
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>8</v>
       </c>
@@ -8043,13 +5989,10 @@
       <c r="I133" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="5"/>
-      <c r="M133" s="5"/>
-      <c r="N133" s="5"/>
-    </row>
-    <row r="134" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J133" s="5"/>
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
@@ -8074,13 +6017,10 @@
       <c r="I134" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="5"/>
-      <c r="M134" s="5"/>
-      <c r="N134" s="5"/>
-    </row>
-    <row r="135" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+      <c r="J134" s="5"/>
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>8</v>
       </c>
@@ -8105,13 +6045,10 @@
       <c r="I135" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="5"/>
-      <c r="M135" s="5"/>
-      <c r="N135" s="5"/>
-    </row>
-    <row r="136" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J135" s="5"/>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>8</v>
       </c>
@@ -8136,13 +6073,10 @@
       <c r="I136" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="5"/>
-      <c r="M136" s="5"/>
-      <c r="N136" s="5"/>
-    </row>
-    <row r="137" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J136" s="5"/>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>8</v>
       </c>
@@ -8167,13 +6101,10 @@
       <c r="I137" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J137" s="6"/>
-      <c r="K137" s="6"/>
-      <c r="L137" s="5"/>
-      <c r="M137" s="5"/>
-      <c r="N137" s="5"/>
-    </row>
-    <row r="138" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J137" s="5"/>
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>8</v>
       </c>
@@ -8198,13 +6129,10 @@
       <c r="I138" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J138" s="6"/>
-      <c r="K138" s="6"/>
-      <c r="L138" s="5"/>
-      <c r="M138" s="5"/>
-      <c r="N138" s="5"/>
-    </row>
-    <row r="139" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J138" s="5"/>
+      <c r="K138" s="5"/>
+    </row>
+    <row r="139" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>8</v>
       </c>
@@ -8229,13 +6157,10 @@
       <c r="I139" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J139" s="6"/>
-      <c r="K139" s="6"/>
-      <c r="L139" s="5"/>
-      <c r="M139" s="5"/>
-      <c r="N139" s="5"/>
-    </row>
-    <row r="140" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J139" s="5"/>
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>8</v>
       </c>
@@ -8260,13 +6185,10 @@
       <c r="I140" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J140" s="6"/>
-      <c r="K140" s="6"/>
-      <c r="L140" s="5"/>
-      <c r="M140" s="5"/>
-      <c r="N140" s="5"/>
-    </row>
-    <row r="141" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>8</v>
       </c>
@@ -8291,13 +6213,10 @@
       <c r="I141" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="5"/>
-      <c r="M141" s="5"/>
-      <c r="N141" s="5"/>
-    </row>
-    <row r="142" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+      <c r="J141" s="5"/>
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>8</v>
       </c>
@@ -8322,13 +6241,10 @@
       <c r="I142" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="5"/>
-      <c r="M142" s="5"/>
-      <c r="N142" s="5"/>
-    </row>
-    <row r="143" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J142" s="5"/>
+      <c r="K142" s="5"/>
+    </row>
+    <row r="143" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>8</v>
       </c>
@@ -8353,13 +6269,10 @@
       <c r="I143" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="5"/>
-      <c r="M143" s="5"/>
-      <c r="N143" s="5"/>
-    </row>
-    <row r="144" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+      <c r="J143" s="5"/>
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>8</v>
       </c>
@@ -8384,13 +6297,10 @@
       <c r="I144" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="J144" s="6"/>
-      <c r="K144" s="6"/>
-      <c r="L144" s="5"/>
-      <c r="M144" s="5"/>
-      <c r="N144" s="5"/>
-    </row>
-    <row r="145" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J144" s="5"/>
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>8</v>
       </c>
@@ -8415,13 +6325,10 @@
       <c r="I145" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
-      <c r="L145" s="5"/>
-      <c r="M145" s="5"/>
-      <c r="N145" s="5"/>
-    </row>
-    <row r="146" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J145" s="5"/>
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>8</v>
       </c>
@@ -8446,13 +6353,10 @@
       <c r="I146" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
-      <c r="L146" s="5"/>
-      <c r="M146" s="5"/>
-      <c r="N146" s="5"/>
-    </row>
-    <row r="147" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="J146" s="5"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>8</v>
       </c>
@@ -8477,13 +6381,10 @@
       <c r="I147" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
-      <c r="L147" s="5"/>
-      <c r="M147" s="5"/>
-      <c r="N147" s="5"/>
-    </row>
-    <row r="148" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+      <c r="J147" s="5"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>8</v>
       </c>
@@ -8508,13 +6409,8 @@
       <c r="I148" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
-      <c r="L148" s="5"/>
-      <c r="M148" s="5"/>
-      <c r="N148" s="5"/>
-    </row>
-    <row r="149" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>8</v>
       </c>
@@ -8540,7 +6436,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>8</v>
       </c>
@@ -8566,7 +6462,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
@@ -8592,7 +6488,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>8</v>
       </c>
@@ -8618,7 +6514,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="162" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" ht="162" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>8</v>
       </c>
@@ -8644,7 +6540,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>8</v>
       </c>
@@ -8670,7 +6566,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>8</v>
       </c>
@@ -8696,7 +6592,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>8</v>
       </c>
@@ -8722,7 +6618,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>8</v>
       </c>
@@ -8748,7 +6644,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="144" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" ht="144" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>8</v>
       </c>
@@ -8774,7 +6670,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="378" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" ht="378" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>8</v>
       </c>
@@ -8800,7 +6696,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>8</v>
       </c>

--- a/database/troubleshooting.xlsx
+++ b/database/troubleshooting.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Semeq\Desktop\ChatbotSemeq\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C011F1-15E7-4C7B-93D5-E51B89B349CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B24D70F-203F-406B-AB97-444299DF20F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9B6CABAE-889F-4735-BD9B-BA414D462F42}"/>
   </bookViews>
@@ -2579,7 +2579,7 @@
   <dimension ref="A1:L192"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
